--- a/raw_data/20200818_saline/20200818_Sensor3_Test_67.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_67.xlsx
@@ -1,1369 +1,1785 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E5A4E2-D47F-4DEE-8693-D9AC842F8449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>59957.685804</v>
+        <v>59957.685804000001</v>
       </c>
       <c r="B2" s="1">
-        <v>16.654913</v>
+        <v>16.654913000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>1148.870000</v>
+        <v>1148.8699999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>-254.863000</v>
+        <v>-254.863</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>59967.733758</v>
+        <v>59967.733758000002</v>
       </c>
       <c r="G2" s="1">
-        <v>16.657704</v>
+        <v>16.657703999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>1169.320000</v>
+        <v>1169.32</v>
       </c>
       <c r="I2" s="1">
-        <v>-214.225000</v>
+        <v>-214.22499999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>59977.825387</v>
+        <v>59977.825386999997</v>
       </c>
       <c r="L2" s="1">
-        <v>16.660507</v>
+        <v>16.660506999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>1195.500000</v>
+        <v>1195.5</v>
       </c>
       <c r="N2" s="1">
-        <v>-148.612000</v>
+        <v>-148.61199999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>59988.379732</v>
+        <v>59988.379732000001</v>
       </c>
       <c r="Q2" s="1">
         <v>16.663439</v>
       </c>
       <c r="R2" s="1">
-        <v>1202.990000</v>
+        <v>1202.99</v>
       </c>
       <c r="S2" s="1">
-        <v>-127.028000</v>
+        <v>-127.02800000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>59998.930661</v>
+        <v>59998.930660999999</v>
       </c>
       <c r="V2" s="1">
-        <v>16.666370</v>
+        <v>16.666370000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>1210.140000</v>
+        <v>1210.1400000000001</v>
       </c>
       <c r="X2" s="1">
-        <v>-106.884000</v>
+        <v>-106.884</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>60009.011817</v>
+        <v>60009.011816999999</v>
       </c>
       <c r="AA2" s="1">
-        <v>16.669170</v>
+        <v>16.669170000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>1217.640000</v>
+        <v>1217.6400000000001</v>
       </c>
       <c r="AC2" s="1">
-        <v>-90.369200</v>
+        <v>-90.369200000000006</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>60019.602890</v>
+        <v>60019.602890000002</v>
       </c>
       <c r="AF2" s="1">
-        <v>16.672112</v>
+        <v>16.672111999999998</v>
       </c>
       <c r="AG2" s="1">
-        <v>1222.230000</v>
+        <v>1222.23</v>
       </c>
       <c r="AH2" s="1">
-        <v>-86.182100</v>
+        <v>-86.182100000000005</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>60030.038717</v>
+        <v>60030.038717000003</v>
       </c>
       <c r="AK2" s="1">
-        <v>16.675011</v>
+        <v>16.675011000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>1229.470000</v>
+        <v>1229.47</v>
       </c>
       <c r="AM2" s="1">
-        <v>-89.890400</v>
+        <v>-89.8904</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>60040.926398</v>
+        <v>60040.926398000003</v>
       </c>
       <c r="AP2" s="1">
-        <v>16.678035</v>
+        <v>16.678035000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1237.570000</v>
+        <v>1237.57</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.114000</v>
+        <v>-102.114</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>60051.831453</v>
+        <v>60051.831452999999</v>
       </c>
       <c r="AU2" s="1">
-        <v>16.681064</v>
+        <v>16.681063999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>1247.780000</v>
+        <v>1247.78</v>
       </c>
       <c r="AW2" s="1">
-        <v>-121.750000</v>
+        <v>-121.75</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>60062.962013</v>
+        <v>60062.962012999997</v>
       </c>
       <c r="AZ2" s="1">
-        <v>16.684156</v>
+        <v>16.684156000000002</v>
       </c>
       <c r="BA2" s="1">
-        <v>1256.410000</v>
+        <v>1256.4100000000001</v>
       </c>
       <c r="BB2" s="1">
-        <v>-139.409000</v>
+        <v>-139.40899999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>60074.345842</v>
+        <v>60074.345842000002</v>
       </c>
       <c r="BE2" s="1">
-        <v>16.687318</v>
+        <v>16.687318000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1297.400000</v>
+        <v>1297.4000000000001</v>
       </c>
       <c r="BG2" s="1">
-        <v>-221.708000</v>
+        <v>-221.708</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>60085.413571</v>
+        <v>60085.413570999997</v>
       </c>
       <c r="BJ2" s="1">
         <v>16.690393</v>
       </c>
       <c r="BK2" s="1">
-        <v>1368.290000</v>
+        <v>1368.29</v>
       </c>
       <c r="BL2" s="1">
-        <v>-357.974000</v>
+        <v>-357.97399999999999</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>60097.174744</v>
+        <v>60097.174744000004</v>
       </c>
       <c r="BO2" s="1">
-        <v>16.693660</v>
+        <v>16.693660000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1484.340000</v>
+        <v>1484.34</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-578.927000</v>
+        <v>-578.92700000000002</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>60107.621943</v>
+        <v>60107.621942999998</v>
       </c>
       <c r="BT2" s="1">
         <v>16.696562</v>
       </c>
       <c r="BU2" s="1">
-        <v>1617.740000</v>
+        <v>1617.74</v>
       </c>
       <c r="BV2" s="1">
-        <v>-828.000000</v>
+        <v>-828</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>60118.303287</v>
+        <v>60118.303287000002</v>
       </c>
       <c r="BY2" s="1">
-        <v>16.699529</v>
+        <v>16.699528999999998</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1772.040000</v>
+        <v>1772.04</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1096.960000</v>
+        <v>-1096.96</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>60129.321912</v>
+        <v>60129.321911999999</v>
       </c>
       <c r="CD2" s="1">
         <v>16.702589</v>
       </c>
       <c r="CE2" s="1">
-        <v>2193.840000</v>
+        <v>2193.84</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1744.610000</v>
+        <v>-1744.61</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>59958.111904</v>
+        <v>59958.111903999998</v>
       </c>
       <c r="B3" s="1">
-        <v>16.655031</v>
+        <v>16.655031000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>1148.690000</v>
+        <v>1148.69</v>
       </c>
       <c r="D3" s="1">
-        <v>-255.012000</v>
+        <v>-255.012</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>59968.153373</v>
+        <v>59968.153373000001</v>
       </c>
       <c r="G3" s="1">
-        <v>16.657820</v>
+        <v>16.657820000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>1169.970000</v>
+        <v>1169.97</v>
       </c>
       <c r="I3" s="1">
-        <v>-213.951000</v>
+        <v>-213.95099999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>59978.241008</v>
+        <v>59978.241007999997</v>
       </c>
       <c r="L3" s="1">
-        <v>16.660623</v>
+        <v>16.660623000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>1195.340000</v>
+        <v>1195.3399999999999</v>
       </c>
       <c r="N3" s="1">
-        <v>-148.526000</v>
+        <v>-148.52600000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>59988.752723</v>
+        <v>59988.752722999998</v>
       </c>
       <c r="Q3" s="1">
         <v>16.663542</v>
       </c>
       <c r="R3" s="1">
-        <v>1203.020000</v>
+        <v>1203.02</v>
       </c>
       <c r="S3" s="1">
-        <v>-127.080000</v>
+        <v>-127.08</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>59999.304116</v>
+        <v>59999.304115999999</v>
       </c>
       <c r="V3" s="1">
         <v>16.666473</v>
       </c>
       <c r="W3" s="1">
-        <v>1210.040000</v>
+        <v>1210.04</v>
       </c>
       <c r="X3" s="1">
-        <v>-106.910000</v>
+        <v>-106.91</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>60009.397704</v>
+        <v>60009.397704000003</v>
       </c>
       <c r="AA3" s="1">
-        <v>16.669277</v>
+        <v>16.669277000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>1217.580000</v>
+        <v>1217.58</v>
       </c>
       <c r="AC3" s="1">
-        <v>-90.380200</v>
+        <v>-90.380200000000002</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>60019.983321</v>
       </c>
       <c r="AF3" s="1">
-        <v>16.672218</v>
+        <v>16.672218000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>1222.270000</v>
+        <v>1222.27</v>
       </c>
       <c r="AH3" s="1">
-        <v>-86.156500</v>
+        <v>-86.156499999999994</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>60030.773327</v>
+        <v>60030.773327000003</v>
       </c>
       <c r="AK3" s="1">
-        <v>16.675215</v>
+        <v>16.675215000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>1229.480000</v>
+        <v>1229.48</v>
       </c>
       <c r="AM3" s="1">
-        <v>-89.865900</v>
+        <v>-89.865899999999996</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>60041.284509</v>
+        <v>60041.284508999997</v>
       </c>
       <c r="AP3" s="1">
-        <v>16.678135</v>
+        <v>16.678135000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1237.570000</v>
+        <v>1237.57</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.139000</v>
+        <v>-102.139</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>60052.225758</v>
       </c>
       <c r="AU3" s="1">
-        <v>16.681174</v>
+        <v>16.681173999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>1247.740000</v>
+        <v>1247.74</v>
       </c>
       <c r="AW3" s="1">
-        <v>-121.757000</v>
+        <v>-121.75700000000001</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>60063.350529</v>
+        <v>60063.350529000003</v>
       </c>
       <c r="AZ3" s="1">
-        <v>16.684264</v>
+        <v>16.684263999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1256.370000</v>
+        <v>1256.3699999999999</v>
       </c>
       <c r="BB3" s="1">
-        <v>-139.411000</v>
+        <v>-139.411</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>60075.030321</v>
+        <v>60075.030320999998</v>
       </c>
       <c r="BE3" s="1">
-        <v>16.687508</v>
+        <v>16.687508000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1297.430000</v>
+        <v>1297.43</v>
       </c>
       <c r="BG3" s="1">
-        <v>-221.698000</v>
+        <v>-221.69800000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>60086.129794</v>
       </c>
       <c r="BJ3" s="1">
-        <v>16.690592</v>
+        <v>16.690591999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1368.290000</v>
+        <v>1368.29</v>
       </c>
       <c r="BL3" s="1">
-        <v>-357.886000</v>
+        <v>-357.88600000000002</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>60097.287300</v>
+        <v>60097.287300000004</v>
       </c>
       <c r="BO3" s="1">
-        <v>16.693691</v>
+        <v>16.693691000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1484.310000</v>
+        <v>1484.31</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-578.913000</v>
+        <v>-578.91300000000001</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>60108.049524</v>
+        <v>60108.049524000002</v>
       </c>
       <c r="BT3" s="1">
-        <v>16.696680</v>
+        <v>16.696680000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>1617.780000</v>
+        <v>1617.78</v>
       </c>
       <c r="BV3" s="1">
-        <v>-828.015000</v>
+        <v>-828.01499999999999</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>60118.788374</v>
+        <v>60118.788374000003</v>
       </c>
       <c r="BY3" s="1">
-        <v>16.699663</v>
+        <v>16.699663000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1772.080000</v>
+        <v>1772.08</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1097.030000</v>
+        <v>-1097.03</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>60129.913640</v>
+        <v>60129.913639999999</v>
       </c>
       <c r="CD3" s="1">
-        <v>16.702754</v>
+        <v>16.702753999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>2191.790000</v>
+        <v>2191.79</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1746.500000</v>
+        <v>-1746.5</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>59958.397562</v>
+        <v>59958.397561999998</v>
       </c>
       <c r="B4" s="1">
-        <v>16.655110</v>
+        <v>16.655110000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>1149.070000</v>
+        <v>1149.07</v>
       </c>
       <c r="D4" s="1">
-        <v>-254.931000</v>
+        <v>-254.93100000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>59968.461389</v>
+        <v>59968.461388999996</v>
       </c>
       <c r="G4" s="1">
-        <v>16.657906</v>
+        <v>16.657906000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>1169.100000</v>
+        <v>1169.0999999999999</v>
       </c>
       <c r="I4" s="1">
-        <v>-213.750000</v>
+        <v>-213.75</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>59978.591183</v>
+        <v>59978.591182999997</v>
       </c>
       <c r="L4" s="1">
-        <v>16.660720</v>
+        <v>16.660720000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>1195.360000</v>
+        <v>1195.3599999999999</v>
       </c>
       <c r="N4" s="1">
-        <v>-148.674000</v>
+        <v>-148.67400000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>59989.099426</v>
+        <v>59989.099426000001</v>
       </c>
       <c r="Q4" s="1">
         <v>16.663639</v>
       </c>
       <c r="R4" s="1">
-        <v>1203.040000</v>
+        <v>1203.04</v>
       </c>
       <c r="S4" s="1">
-        <v>-127.146000</v>
+        <v>-127.146</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>59999.648340</v>
+        <v>59999.64834</v>
       </c>
       <c r="V4" s="1">
-        <v>16.666569</v>
+        <v>16.666568999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>1210.130000</v>
+        <v>1210.1300000000001</v>
       </c>
       <c r="X4" s="1">
-        <v>-106.798000</v>
+        <v>-106.798</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>60010.095573</v>
+        <v>60010.095572999999</v>
       </c>
       <c r="AA4" s="1">
-        <v>16.669471</v>
+        <v>16.669471000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>1217.690000</v>
+        <v>1217.69</v>
       </c>
       <c r="AC4" s="1">
-        <v>-90.231500</v>
+        <v>-90.231499999999997</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>60020.668296</v>
+        <v>60020.668296000003</v>
       </c>
       <c r="AF4" s="1">
-        <v>16.672408</v>
+        <v>16.672408000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>1222.230000</v>
+        <v>1222.23</v>
       </c>
       <c r="AH4" s="1">
-        <v>-86.187100</v>
+        <v>-86.187100000000001</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>60031.121978</v>
+        <v>60031.121978000003</v>
       </c>
       <c r="AK4" s="1">
-        <v>16.675312</v>
+        <v>16.675312000000002</v>
       </c>
       <c r="AL4" s="1">
-        <v>1229.450000</v>
+        <v>1229.45</v>
       </c>
       <c r="AM4" s="1">
-        <v>-89.867300</v>
+        <v>-89.8673</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>60041.648077</v>
+        <v>60041.648076999998</v>
       </c>
       <c r="AP4" s="1">
-        <v>16.678236</v>
+        <v>16.678235999999998</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1237.570000</v>
+        <v>1237.57</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.107000</v>
+        <v>-102.107</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>60052.590318</v>
+        <v>60052.590318000002</v>
       </c>
       <c r="AU4" s="1">
-        <v>16.681275</v>
+        <v>16.681274999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>1247.730000</v>
+        <v>1247.73</v>
       </c>
       <c r="AW4" s="1">
-        <v>-121.728000</v>
+        <v>-121.72799999999999</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>60064.013680</v>
+        <v>60064.013679999996</v>
       </c>
       <c r="AZ4" s="1">
         <v>16.684448</v>
       </c>
       <c r="BA4" s="1">
-        <v>1256.420000</v>
+        <v>1256.42</v>
       </c>
       <c r="BB4" s="1">
-        <v>-139.400000</v>
+        <v>-139.4</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>60075.444975</v>
+        <v>60075.444974999999</v>
       </c>
       <c r="BE4" s="1">
         <v>16.687624</v>
       </c>
       <c r="BF4" s="1">
-        <v>1297.430000</v>
+        <v>1297.43</v>
       </c>
       <c r="BG4" s="1">
-        <v>-221.707000</v>
+        <v>-221.70699999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>60086.563803</v>
+        <v>60086.563802999997</v>
       </c>
       <c r="BJ4" s="1">
-        <v>16.690712</v>
+        <v>16.690712000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1368.280000</v>
+        <v>1368.28</v>
       </c>
       <c r="BL4" s="1">
-        <v>-357.922000</v>
+        <v>-357.92200000000003</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>60097.696002</v>
+        <v>60097.696001999997</v>
       </c>
       <c r="BO4" s="1">
         <v>16.693804</v>
       </c>
       <c r="BP4" s="1">
-        <v>1484.310000</v>
+        <v>1484.31</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-578.972000</v>
+        <v>-578.97199999999998</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>60108.459218</v>
+        <v>60108.459218000004</v>
       </c>
       <c r="BT4" s="1">
-        <v>16.696794</v>
+        <v>16.696794000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1617.970000</v>
+        <v>1617.97</v>
       </c>
       <c r="BV4" s="1">
-        <v>-828.030000</v>
+        <v>-828.03</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>60119.236269</v>
+        <v>60119.236269000001</v>
       </c>
       <c r="BY4" s="1">
-        <v>16.699788</v>
+        <v>16.699788000000002</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1771.980000</v>
+        <v>1771.98</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1096.900000</v>
+        <v>-1096.9000000000001</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>60130.456758</v>
       </c>
       <c r="CD4" s="1">
-        <v>16.702905</v>
+        <v>16.702905000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>2194.450000</v>
+        <v>2194.4499999999998</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1746.010000</v>
+        <v>-1746.01</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>59958.740831</v>
+        <v>59958.740831000003</v>
       </c>
       <c r="B5" s="1">
         <v>16.655206</v>
       </c>
       <c r="C5" s="1">
-        <v>1148.840000</v>
+        <v>1148.8399999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>-254.949000</v>
+        <v>-254.94900000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>59968.803913</v>
+        <v>59968.803913000003</v>
       </c>
       <c r="G5" s="1">
-        <v>16.658001</v>
+        <v>16.658000999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>1169.350000</v>
+        <v>1169.3499999999999</v>
       </c>
       <c r="I5" s="1">
-        <v>-214.019000</v>
+        <v>-214.01900000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>59978.933951</v>
+        <v>59978.933950999999</v>
       </c>
       <c r="L5" s="1">
-        <v>16.660815</v>
+        <v>16.660814999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>1195.670000</v>
+        <v>1195.67</v>
       </c>
       <c r="N5" s="1">
-        <v>-148.493000</v>
+        <v>-148.49299999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>59989.809697</v>
+        <v>59989.809696999997</v>
       </c>
       <c r="Q5" s="1">
         <v>16.663836</v>
       </c>
       <c r="R5" s="1">
-        <v>1202.960000</v>
+        <v>1202.96</v>
       </c>
       <c r="S5" s="1">
-        <v>-127.133000</v>
+        <v>-127.133</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>60000.334546</v>
+        <v>60000.334545999998</v>
       </c>
       <c r="V5" s="1">
-        <v>16.666760</v>
+        <v>16.66676</v>
       </c>
       <c r="W5" s="1">
-        <v>1209.940000</v>
+        <v>1209.94</v>
       </c>
       <c r="X5" s="1">
-        <v>-106.951000</v>
+        <v>-106.95099999999999</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>60010.443269</v>
+        <v>60010.443269000003</v>
       </c>
       <c r="AA5" s="1">
-        <v>16.669568</v>
+        <v>16.669568000000002</v>
       </c>
       <c r="AB5" s="1">
-        <v>1217.570000</v>
+        <v>1217.57</v>
       </c>
       <c r="AC5" s="1">
-        <v>-90.330100</v>
+        <v>-90.330100000000002</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>60021.011527</v>
+        <v>60021.011527000002</v>
       </c>
       <c r="AF5" s="1">
-        <v>16.672503</v>
+        <v>16.672502999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>1222.260000</v>
+        <v>1222.26</v>
       </c>
       <c r="AH5" s="1">
-        <v>-86.129500</v>
+        <v>-86.129499999999993</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>60031.470207</v>
+        <v>60031.470206999998</v>
       </c>
       <c r="AK5" s="1">
-        <v>16.675408</v>
+        <v>16.675408000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>1229.460000</v>
+        <v>1229.46</v>
       </c>
       <c r="AM5" s="1">
-        <v>-89.862500</v>
+        <v>-89.862499999999997</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
         <v>60042.325115</v>
@@ -1372,360 +1788,360 @@
         <v>16.678424</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1237.560000</v>
+        <v>1237.56</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.104000</v>
+        <v>-102.104</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>60053.262893</v>
+        <v>60053.262892999999</v>
       </c>
       <c r="AU5" s="1">
         <v>16.681462</v>
       </c>
       <c r="AV5" s="1">
-        <v>1247.780000</v>
+        <v>1247.78</v>
       </c>
       <c r="AW5" s="1">
-        <v>-121.737000</v>
+        <v>-121.73699999999999</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>60064.428830</v>
+        <v>60064.428829999997</v>
       </c>
       <c r="AZ5" s="1">
-        <v>16.684564</v>
+        <v>16.684564000000002</v>
       </c>
       <c r="BA5" s="1">
-        <v>1256.400000</v>
+        <v>1256.4000000000001</v>
       </c>
       <c r="BB5" s="1">
-        <v>-139.388000</v>
+        <v>-139.38800000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>60075.832351</v>
+        <v>60075.832350999997</v>
       </c>
       <c r="BE5" s="1">
-        <v>16.687731</v>
+        <v>16.687730999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1297.410000</v>
+        <v>1297.4100000000001</v>
       </c>
       <c r="BG5" s="1">
-        <v>-221.672000</v>
+        <v>-221.672</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>60086.940287</v>
+        <v>60086.940286999998</v>
       </c>
       <c r="BJ5" s="1">
-        <v>16.690817</v>
+        <v>16.690816999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1368.330000</v>
+        <v>1368.33</v>
       </c>
       <c r="BL5" s="1">
-        <v>-357.957000</v>
+        <v>-357.95699999999999</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>60098.093795</v>
+        <v>60098.093795000001</v>
       </c>
       <c r="BO5" s="1">
-        <v>16.693915</v>
+        <v>16.693915000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1484.300000</v>
+        <v>1484.3</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-578.968000</v>
+        <v>-578.96799999999996</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>60108.896694</v>
+        <v>60108.896694000003</v>
       </c>
       <c r="BT5" s="1">
-        <v>16.696916</v>
+        <v>16.696916000000002</v>
       </c>
       <c r="BU5" s="1">
-        <v>1618.050000</v>
+        <v>1618.05</v>
       </c>
       <c r="BV5" s="1">
-        <v>-828.063000</v>
+        <v>-828.06299999999999</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>60119.707957</v>
+        <v>60119.707956999999</v>
       </c>
       <c r="BY5" s="1">
-        <v>16.699919</v>
+        <v>16.699919000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1772.090000</v>
+        <v>1772.09</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1096.990000</v>
+        <v>-1096.99</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>60130.998390</v>
+        <v>60130.998390000001</v>
       </c>
       <c r="CD5" s="1">
-        <v>16.703055</v>
+        <v>16.703054999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>2192.180000</v>
+        <v>2192.1799999999998</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1745.260000</v>
+        <v>-1745.26</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>59959.082537</v>
+        <v>59959.082537000002</v>
       </c>
       <c r="B6" s="1">
-        <v>16.655301</v>
+        <v>16.655301000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>1148.720000</v>
+        <v>1148.72</v>
       </c>
       <c r="D6" s="1">
-        <v>-254.886000</v>
+        <v>-254.886</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>59969.146862</v>
+        <v>59969.146862000001</v>
       </c>
       <c r="G6" s="1">
         <v>16.658096</v>
       </c>
       <c r="H6" s="1">
-        <v>1169.500000</v>
+        <v>1169.5</v>
       </c>
       <c r="I6" s="1">
-        <v>-213.390000</v>
+        <v>-213.39</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>59979.624387</v>
+        <v>59979.624387000003</v>
       </c>
       <c r="L6" s="1">
-        <v>16.661007</v>
+        <v>16.661007000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>1195.290000</v>
+        <v>1195.29</v>
       </c>
       <c r="N6" s="1">
-        <v>-148.521000</v>
+        <v>-148.52099999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>59990.145985</v>
+        <v>59990.145985000003</v>
       </c>
       <c r="Q6" s="1">
         <v>16.663929</v>
       </c>
       <c r="R6" s="1">
-        <v>1202.980000</v>
+        <v>1202.98</v>
       </c>
       <c r="S6" s="1">
-        <v>-127.044000</v>
+        <v>-127.044</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>60000.680018</v>
+        <v>60000.680017999999</v>
       </c>
       <c r="V6" s="1">
-        <v>16.666856</v>
+        <v>16.666855999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>1210.160000</v>
+        <v>1210.1600000000001</v>
       </c>
       <c r="X6" s="1">
-        <v>-106.680000</v>
+        <v>-106.68</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>60010.789013</v>
+        <v>60010.789013000001</v>
       </c>
       <c r="AA6" s="1">
-        <v>16.669664</v>
+        <v>16.669664000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>1217.600000</v>
+        <v>1217.5999999999999</v>
       </c>
       <c r="AC6" s="1">
-        <v>-90.289700</v>
+        <v>-90.289699999999996</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>60021.669720</v>
+        <v>60021.669719999998</v>
       </c>
       <c r="AF6" s="1">
-        <v>16.672686</v>
+        <v>16.672685999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>1222.260000</v>
+        <v>1222.26</v>
       </c>
       <c r="AH6" s="1">
-        <v>-86.123000</v>
+        <v>-86.123000000000005</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>60032.131834</v>
       </c>
       <c r="AK6" s="1">
-        <v>16.675592</v>
+        <v>16.675592000000002</v>
       </c>
       <c r="AL6" s="1">
-        <v>1229.440000</v>
+        <v>1229.44</v>
       </c>
       <c r="AM6" s="1">
-        <v>-89.887700</v>
+        <v>-89.887699999999995</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>60042.730511</v>
+        <v>60042.730511000002</v>
       </c>
       <c r="AP6" s="1">
-        <v>16.678536</v>
+        <v>16.678536000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1237.530000</v>
+        <v>1237.53</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.134000</v>
+        <v>-102.134</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>60053.679038</v>
+        <v>60053.679038000002</v>
       </c>
       <c r="AU6" s="1">
-        <v>16.681578</v>
+        <v>16.681577999999998</v>
       </c>
       <c r="AV6" s="1">
-        <v>1247.750000</v>
+        <v>1247.75</v>
       </c>
       <c r="AW6" s="1">
-        <v>-121.731000</v>
+        <v>-121.73099999999999</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>60064.811965</v>
+        <v>60064.811965000001</v>
       </c>
       <c r="AZ6" s="1">
-        <v>16.684670</v>
+        <v>16.684670000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1256.390000</v>
+        <v>1256.3900000000001</v>
       </c>
       <c r="BB6" s="1">
-        <v>-139.385000</v>
+        <v>-139.38499999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>60076.195951</v>
+        <v>60076.195951000002</v>
       </c>
       <c r="BE6" s="1">
         <v>16.687832</v>
       </c>
       <c r="BF6" s="1">
-        <v>1297.420000</v>
+        <v>1297.42</v>
       </c>
       <c r="BG6" s="1">
-        <v>-221.673000</v>
+        <v>-221.673</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>60087.373761</v>
+        <v>60087.373761000003</v>
       </c>
       <c r="BJ6" s="1">
-        <v>16.690937</v>
+        <v>16.690937000000002</v>
       </c>
       <c r="BK6" s="1">
-        <v>1368.310000</v>
+        <v>1368.31</v>
       </c>
       <c r="BL6" s="1">
-        <v>-357.974000</v>
+        <v>-357.97399999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>60098.523825</v>
+        <v>60098.523824999997</v>
       </c>
       <c r="BO6" s="1">
-        <v>16.694034</v>
+        <v>16.694033999999998</v>
       </c>
       <c r="BP6" s="1">
-        <v>1484.300000</v>
+        <v>1484.3</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-578.955000</v>
+        <v>-578.95500000000004</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>60109.326690</v>
+        <v>60109.326690000002</v>
       </c>
       <c r="BT6" s="1">
         <v>16.697035</v>
       </c>
       <c r="BU6" s="1">
-        <v>1618.210000</v>
+        <v>1618.21</v>
       </c>
       <c r="BV6" s="1">
-        <v>-828.171000</v>
+        <v>-828.17100000000005</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>60120.140474</v>
@@ -1734,332 +2150,332 @@
         <v>16.700039</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1772.110000</v>
+        <v>1772.11</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1096.970000</v>
+        <v>-1096.97</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>60131.538534</v>
+        <v>60131.538533999999</v>
       </c>
       <c r="CD6" s="1">
-        <v>16.703205</v>
+        <v>16.703205000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>2193.230000</v>
+        <v>2193.23</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1747.260000</v>
+        <v>-1747.26</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>59959.764536</v>
+        <v>59959.764536000002</v>
       </c>
       <c r="B7" s="1">
-        <v>16.655490</v>
+        <v>16.65549</v>
       </c>
       <c r="C7" s="1">
-        <v>1148.690000</v>
+        <v>1148.69</v>
       </c>
       <c r="D7" s="1">
-        <v>-254.982000</v>
+        <v>-254.982</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>59969.835803</v>
+        <v>59969.835803000002</v>
       </c>
       <c r="G7" s="1">
-        <v>16.658288</v>
+        <v>16.658287999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>1169.320000</v>
+        <v>1169.32</v>
       </c>
       <c r="I7" s="1">
-        <v>-214.036000</v>
+        <v>-214.036</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>59979.969572</v>
+        <v>59979.969572000002</v>
       </c>
       <c r="L7" s="1">
-        <v>16.661103</v>
+        <v>16.661103000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>1195.630000</v>
+        <v>1195.6300000000001</v>
       </c>
       <c r="N7" s="1">
-        <v>-148.739000</v>
+        <v>-148.739</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>59990.496161</v>
+        <v>59990.496161000003</v>
       </c>
       <c r="Q7" s="1">
-        <v>16.664027</v>
+        <v>16.664027000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>1202.990000</v>
+        <v>1202.99</v>
       </c>
       <c r="S7" s="1">
-        <v>-127.034000</v>
+        <v>-127.03400000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>60001.025234</v>
+        <v>60001.025234000001</v>
       </c>
       <c r="V7" s="1">
-        <v>16.666951</v>
+        <v>16.666951000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>1209.960000</v>
+        <v>1209.96</v>
       </c>
       <c r="X7" s="1">
-        <v>-106.898000</v>
+        <v>-106.898</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>60011.449156</v>
+        <v>60011.449156000002</v>
       </c>
       <c r="AA7" s="1">
-        <v>16.669847</v>
+        <v>16.669847000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>1217.620000</v>
+        <v>1217.6199999999999</v>
       </c>
       <c r="AC7" s="1">
-        <v>-90.379000</v>
+        <v>-90.379000000000005</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>60022.039742</v>
+        <v>60022.039742000001</v>
       </c>
       <c r="AF7" s="1">
-        <v>16.672789</v>
+        <v>16.672789000000002</v>
       </c>
       <c r="AG7" s="1">
-        <v>1222.270000</v>
+        <v>1222.27</v>
       </c>
       <c r="AH7" s="1">
-        <v>-86.173700</v>
+        <v>-86.173699999999997</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>60032.516729</v>
+        <v>60032.516729000003</v>
       </c>
       <c r="AK7" s="1">
-        <v>16.675699</v>
+        <v>16.675699000000002</v>
       </c>
       <c r="AL7" s="1">
-        <v>1229.450000</v>
+        <v>1229.45</v>
       </c>
       <c r="AM7" s="1">
-        <v>-89.882100</v>
+        <v>-89.882099999999994</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>60043.112267</v>
+        <v>60043.112266999997</v>
       </c>
       <c r="AP7" s="1">
         <v>16.678642</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1237.520000</v>
+        <v>1237.52</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.126000</v>
+        <v>-102.126</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>60054.048059</v>
+        <v>60054.048059000001</v>
       </c>
       <c r="AU7" s="1">
-        <v>16.681680</v>
+        <v>16.68168</v>
       </c>
       <c r="AV7" s="1">
-        <v>1247.750000</v>
+        <v>1247.75</v>
       </c>
       <c r="AW7" s="1">
-        <v>-121.716000</v>
+        <v>-121.71599999999999</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>60065.190717</v>
+        <v>60065.190716999998</v>
       </c>
       <c r="AZ7" s="1">
-        <v>16.684775</v>
+        <v>16.684774999999998</v>
       </c>
       <c r="BA7" s="1">
-        <v>1256.420000</v>
+        <v>1256.42</v>
       </c>
       <c r="BB7" s="1">
-        <v>-139.428000</v>
+        <v>-139.428</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>60076.623476</v>
+        <v>60076.623476000001</v>
       </c>
       <c r="BE7" s="1">
-        <v>16.687951</v>
+        <v>16.687951000000002</v>
       </c>
       <c r="BF7" s="1">
-        <v>1297.410000</v>
+        <v>1297.4100000000001</v>
       </c>
       <c r="BG7" s="1">
-        <v>-221.711000</v>
+        <v>-221.71100000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>60087.688719</v>
+        <v>60087.688718999998</v>
       </c>
       <c r="BJ7" s="1">
         <v>16.691025</v>
       </c>
       <c r="BK7" s="1">
-        <v>1368.280000</v>
+        <v>1368.28</v>
       </c>
       <c r="BL7" s="1">
-        <v>-357.992000</v>
+        <v>-357.99200000000002</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>60098.911697</v>
+        <v>60098.911697000003</v>
       </c>
       <c r="BO7" s="1">
-        <v>16.694142</v>
+        <v>16.694141999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1484.260000</v>
+        <v>1484.26</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-578.930000</v>
+        <v>-578.92999999999995</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>60109.736386</v>
+        <v>60109.736385999997</v>
       </c>
       <c r="BT7" s="1">
         <v>16.697149</v>
       </c>
       <c r="BU7" s="1">
-        <v>1618.220000</v>
+        <v>1618.22</v>
       </c>
       <c r="BV7" s="1">
-        <v>-828.012000</v>
+        <v>-828.01199999999994</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>60120.562609</v>
+        <v>60120.562609000001</v>
       </c>
       <c r="BY7" s="1">
         <v>16.700156</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1771.910000</v>
+        <v>1771.91</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1096.910000</v>
+        <v>-1096.9100000000001</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>60132.077221</v>
       </c>
       <c r="CD7" s="1">
-        <v>16.703355</v>
+        <v>16.703354999999998</v>
       </c>
       <c r="CE7" s="1">
-        <v>2193.880000</v>
+        <v>2193.88</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1744.710000</v>
+        <v>-1744.71</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>59960.109257</v>
+        <v>59960.109256999996</v>
       </c>
       <c r="B8" s="1">
         <v>16.655586</v>
       </c>
       <c r="C8" s="1">
-        <v>1148.670000</v>
+        <v>1148.67</v>
       </c>
       <c r="D8" s="1">
-        <v>-254.800000</v>
+        <v>-254.8</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>59970.187467</v>
+        <v>59970.187467000003</v>
       </c>
       <c r="G8" s="1">
-        <v>16.658385</v>
+        <v>16.658384999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>1169.210000</v>
+        <v>1169.21</v>
       </c>
       <c r="I8" s="1">
-        <v>-213.672000</v>
+        <v>-213.672</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>59980.313790</v>
+        <v>59980.31379</v>
       </c>
       <c r="L8" s="1">
-        <v>16.661198</v>
+        <v>16.661197999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>1195.470000</v>
+        <v>1195.47</v>
       </c>
       <c r="N8" s="1">
-        <v>-148.717000</v>
+        <v>-148.71700000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>59991.153887</v>
@@ -2068,103 +2484,103 @@
         <v>16.664209</v>
       </c>
       <c r="R8" s="1">
-        <v>1203.030000</v>
+        <v>1203.03</v>
       </c>
       <c r="S8" s="1">
-        <v>-127.117000</v>
+        <v>-127.117</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>60001.672513</v>
+        <v>60001.672512999998</v>
       </c>
       <c r="V8" s="1">
-        <v>16.667131</v>
+        <v>16.667131000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>1209.940000</v>
+        <v>1209.94</v>
       </c>
       <c r="X8" s="1">
-        <v>-106.985000</v>
+        <v>-106.985</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>60011.837028</v>
+        <v>60011.837028000002</v>
       </c>
       <c r="AA8" s="1">
-        <v>16.669955</v>
+        <v>16.669955000000002</v>
       </c>
       <c r="AB8" s="1">
-        <v>1217.480000</v>
+        <v>1217.48</v>
       </c>
       <c r="AC8" s="1">
-        <v>-90.352500</v>
+        <v>-90.352500000000006</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>60022.375525</v>
+        <v>60022.375525000003</v>
       </c>
       <c r="AF8" s="1">
-        <v>16.672882</v>
+        <v>16.672882000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>1222.230000</v>
+        <v>1222.23</v>
       </c>
       <c r="AH8" s="1">
-        <v>-86.139100</v>
+        <v>-86.139099999999999</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>60032.866905</v>
+        <v>60032.866905000003</v>
       </c>
       <c r="AK8" s="1">
-        <v>16.675796</v>
+        <v>16.675795999999998</v>
       </c>
       <c r="AL8" s="1">
-        <v>1229.470000</v>
+        <v>1229.47</v>
       </c>
       <c r="AM8" s="1">
-        <v>-89.859700</v>
+        <v>-89.859700000000004</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>60043.470874</v>
+        <v>60043.470873999999</v>
       </c>
       <c r="AP8" s="1">
         <v>16.678742</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1237.560000</v>
+        <v>1237.56</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.131000</v>
+        <v>-102.131</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>60054.477627</v>
       </c>
       <c r="AU8" s="1">
-        <v>16.681799</v>
+        <v>16.681799000000002</v>
       </c>
       <c r="AV8" s="1">
-        <v>1247.760000</v>
+        <v>1247.76</v>
       </c>
       <c r="AW8" s="1">
-        <v>-121.758000</v>
+        <v>-121.758</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
         <v>60065.606861</v>
@@ -2173,572 +2589,572 @@
         <v>16.684891</v>
       </c>
       <c r="BA8" s="1">
-        <v>1256.380000</v>
+        <v>1256.3800000000001</v>
       </c>
       <c r="BB8" s="1">
-        <v>-139.403000</v>
+        <v>-139.40299999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>60076.915154</v>
+        <v>60076.915154000002</v>
       </c>
       <c r="BE8" s="1">
         <v>16.688032</v>
       </c>
       <c r="BF8" s="1">
-        <v>1297.390000</v>
+        <v>1297.3900000000001</v>
       </c>
       <c r="BG8" s="1">
-        <v>-221.711000</v>
+        <v>-221.71100000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>60088.063696</v>
+        <v>60088.063695999997</v>
       </c>
       <c r="BJ8" s="1">
         <v>16.691129</v>
       </c>
       <c r="BK8" s="1">
-        <v>1368.320000</v>
+        <v>1368.32</v>
       </c>
       <c r="BL8" s="1">
-        <v>-357.909000</v>
+        <v>-357.90899999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>60099.334816</v>
+        <v>60099.334816000002</v>
       </c>
       <c r="BO8" s="1">
-        <v>16.694260</v>
+        <v>16.69426</v>
       </c>
       <c r="BP8" s="1">
-        <v>1484.360000</v>
+        <v>1484.36</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-579.001000</v>
+        <v>-579.00099999999998</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>60110.167906</v>
+        <v>60110.167906000002</v>
       </c>
       <c r="BT8" s="1">
-        <v>16.697269</v>
+        <v>16.697268999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1618.410000</v>
+        <v>1618.41</v>
       </c>
       <c r="BV8" s="1">
-        <v>-827.973000</v>
+        <v>-827.97299999999996</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>60120.986148</v>
+        <v>60120.986148000004</v>
       </c>
       <c r="BY8" s="1">
         <v>16.700274</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1771.950000</v>
+        <v>1771.95</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1097.050000</v>
+        <v>-1097.05</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>60132.614852</v>
+        <v>60132.614851999999</v>
       </c>
       <c r="CD8" s="1">
-        <v>16.703504</v>
+        <v>16.703503999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>2191.780000</v>
+        <v>2191.7800000000002</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1746.940000</v>
+        <v>-1746.94</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>59960.451523</v>
+        <v>59960.451523000003</v>
       </c>
       <c r="B9" s="1">
-        <v>16.655681</v>
+        <v>16.655681000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>1148.790000</v>
+        <v>1148.79</v>
       </c>
       <c r="D9" s="1">
-        <v>-254.829000</v>
+        <v>-254.82900000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>59970.539627</v>
+        <v>59970.539626999998</v>
       </c>
       <c r="G9" s="1">
         <v>16.658483</v>
       </c>
       <c r="H9" s="1">
-        <v>1169.290000</v>
+        <v>1169.29</v>
       </c>
       <c r="I9" s="1">
-        <v>-214.084000</v>
+        <v>-214.084</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>59980.982398</v>
       </c>
       <c r="L9" s="1">
-        <v>16.661384</v>
+        <v>16.661384000000002</v>
       </c>
       <c r="M9" s="1">
-        <v>1195.630000</v>
+        <v>1195.6300000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>-148.678000</v>
+        <v>-148.678</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>59991.537766</v>
+        <v>59991.537766000001</v>
       </c>
       <c r="Q9" s="1">
-        <v>16.664316</v>
+        <v>16.664315999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>1203.050000</v>
+        <v>1203.05</v>
       </c>
       <c r="S9" s="1">
-        <v>-127.168000</v>
+        <v>-127.16800000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>60002.055424</v>
+        <v>60002.055423999998</v>
       </c>
       <c r="V9" s="1">
-        <v>16.667238</v>
+        <v>16.667238000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>1210.110000</v>
+        <v>1210.1099999999999</v>
       </c>
       <c r="X9" s="1">
-        <v>-106.746000</v>
+        <v>-106.746</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>60012.186212</v>
+        <v>60012.186212000001</v>
       </c>
       <c r="AA9" s="1">
-        <v>16.670052</v>
+        <v>16.670051999999998</v>
       </c>
       <c r="AB9" s="1">
-        <v>1217.600000</v>
+        <v>1217.5999999999999</v>
       </c>
       <c r="AC9" s="1">
-        <v>-90.335300</v>
+        <v>-90.335300000000004</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>60022.728181</v>
+        <v>60022.728180999999</v>
       </c>
       <c r="AF9" s="1">
-        <v>16.672980</v>
+        <v>16.672979999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>1222.200000</v>
+        <v>1222.2</v>
       </c>
       <c r="AH9" s="1">
-        <v>-86.103700</v>
+        <v>-86.103700000000003</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>60033.211129</v>
+        <v>60033.211129000003</v>
       </c>
       <c r="AK9" s="1">
-        <v>16.675892</v>
+        <v>16.675892000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>1229.480000</v>
+        <v>1229.48</v>
       </c>
       <c r="AM9" s="1">
-        <v>-89.876600</v>
+        <v>-89.876599999999996</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>60043.892473</v>
       </c>
       <c r="AP9" s="1">
-        <v>16.678859</v>
+        <v>16.678858999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1237.550000</v>
+        <v>1237.55</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.112000</v>
+        <v>-102.11199999999999</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>60054.773253</v>
+        <v>60054.773252999999</v>
       </c>
       <c r="AU9" s="1">
-        <v>16.681881</v>
+        <v>16.681881000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>1247.760000</v>
+        <v>1247.76</v>
       </c>
       <c r="AW9" s="1">
-        <v>-121.729000</v>
+        <v>-121.729</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>60065.909921</v>
+        <v>60065.909920999999</v>
       </c>
       <c r="AZ9" s="1">
-        <v>16.684975</v>
+        <v>16.684975000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1256.400000</v>
+        <v>1256.4000000000001</v>
       </c>
       <c r="BB9" s="1">
-        <v>-139.437000</v>
+        <v>-139.43700000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>60077.278220</v>
+        <v>60077.27822</v>
       </c>
       <c r="BE9" s="1">
-        <v>16.688133</v>
+        <v>16.688133000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1297.390000</v>
+        <v>1297.3900000000001</v>
       </c>
       <c r="BG9" s="1">
-        <v>-221.727000</v>
+        <v>-221.727</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>60088.447103</v>
+        <v>60088.447102999999</v>
       </c>
       <c r="BJ9" s="1">
-        <v>16.691235</v>
+        <v>16.691234999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1368.330000</v>
+        <v>1368.33</v>
       </c>
       <c r="BL9" s="1">
-        <v>-357.938000</v>
+        <v>-357.93799999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>60099.727615</v>
+        <v>60099.727615000003</v>
       </c>
       <c r="BO9" s="1">
-        <v>16.694369</v>
+        <v>16.694368999999998</v>
       </c>
       <c r="BP9" s="1">
-        <v>1484.350000</v>
+        <v>1484.35</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-578.982000</v>
+        <v>-578.98199999999997</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>60110.597970</v>
+        <v>60110.597970000003</v>
       </c>
       <c r="BT9" s="1">
         <v>16.697388</v>
       </c>
       <c r="BU9" s="1">
-        <v>1618.440000</v>
+        <v>1618.44</v>
       </c>
       <c r="BV9" s="1">
-        <v>-827.799000</v>
+        <v>-827.79899999999998</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>60121.407747</v>
+        <v>60121.407746999997</v>
       </c>
       <c r="BY9" s="1">
         <v>16.700391</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1771.990000</v>
+        <v>1771.99</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1097.070000</v>
+        <v>-1097.07</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>60133.159957</v>
+        <v>60133.159957000003</v>
       </c>
       <c r="CD9" s="1">
-        <v>16.703656</v>
+        <v>16.703655999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>2194.460000</v>
+        <v>2194.46</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1745.610000</v>
+        <v>-1745.61</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>59961.115646</v>
+        <v>59961.115645999998</v>
       </c>
       <c r="B10" s="1">
-        <v>16.655865</v>
+        <v>16.655864999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>1148.910000</v>
+        <v>1148.9100000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>-255.113000</v>
+        <v>-255.113</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>59971.078779</v>
+        <v>59971.078779000003</v>
       </c>
       <c r="G10" s="1">
-        <v>16.658633</v>
+        <v>16.658632999999998</v>
       </c>
       <c r="H10" s="1">
-        <v>1170.250000</v>
+        <v>1170.25</v>
       </c>
       <c r="I10" s="1">
-        <v>-212.951000</v>
+        <v>-212.95099999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>59981.349932</v>
+        <v>59981.349931999997</v>
       </c>
       <c r="L10" s="1">
         <v>16.661486</v>
       </c>
       <c r="M10" s="1">
-        <v>1195.450000</v>
+        <v>1195.45</v>
       </c>
       <c r="N10" s="1">
-        <v>-148.672000</v>
+        <v>-148.672</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>59991.887934</v>
+        <v>59991.887933999998</v>
       </c>
       <c r="Q10" s="1">
         <v>16.664413</v>
       </c>
       <c r="R10" s="1">
-        <v>1202.990000</v>
+        <v>1202.99</v>
       </c>
       <c r="S10" s="1">
-        <v>-127.157000</v>
+        <v>-127.157</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>60002.398192</v>
+        <v>60002.398192000001</v>
       </c>
       <c r="V10" s="1">
-        <v>16.667333</v>
+        <v>16.667332999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>1210.020000</v>
+        <v>1210.02</v>
       </c>
       <c r="X10" s="1">
-        <v>-106.759000</v>
+        <v>-106.759</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>60012.535892</v>
       </c>
       <c r="AA10" s="1">
-        <v>16.670149</v>
+        <v>16.670148999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>1217.580000</v>
+        <v>1217.58</v>
       </c>
       <c r="AC10" s="1">
-        <v>-90.412700</v>
+        <v>-90.412700000000001</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>60023.153289</v>
+        <v>60023.153289000002</v>
       </c>
       <c r="AF10" s="1">
         <v>16.673098</v>
       </c>
       <c r="AG10" s="1">
-        <v>1222.250000</v>
+        <v>1222.25</v>
       </c>
       <c r="AH10" s="1">
-        <v>-86.186800</v>
+        <v>-86.186800000000005</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>60033.631331</v>
+        <v>60033.631330999997</v>
       </c>
       <c r="AK10" s="1">
-        <v>16.676009</v>
+        <v>16.676009000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>1229.460000</v>
+        <v>1229.46</v>
       </c>
       <c r="AM10" s="1">
-        <v>-89.883800</v>
+        <v>-89.883799999999994</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>60044.190569</v>
+        <v>60044.190568999999</v>
       </c>
       <c r="AP10" s="1">
-        <v>16.678942</v>
+        <v>16.678941999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1237.540000</v>
+        <v>1237.54</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.147000</v>
+        <v>-102.14700000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>60055.141740</v>
+        <v>60055.141739999999</v>
       </c>
       <c r="AU10" s="1">
         <v>16.681984</v>
       </c>
       <c r="AV10" s="1">
-        <v>1247.770000</v>
+        <v>1247.77</v>
       </c>
       <c r="AW10" s="1">
-        <v>-121.741000</v>
+        <v>-121.741</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>60066.269521</v>
+        <v>60066.269521000002</v>
       </c>
       <c r="AZ10" s="1">
-        <v>16.685075</v>
+        <v>16.685075000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>1256.400000</v>
+        <v>1256.4000000000001</v>
       </c>
       <c r="BB10" s="1">
-        <v>-139.406000</v>
+        <v>-139.40600000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>60077.641789</v>
+        <v>60077.641789000001</v>
       </c>
       <c r="BE10" s="1">
-        <v>16.688234</v>
+        <v>16.688234000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1297.390000</v>
+        <v>1297.3900000000001</v>
       </c>
       <c r="BG10" s="1">
-        <v>-221.689000</v>
+        <v>-221.68899999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>60089.209708</v>
+        <v>60089.209708000002</v>
       </c>
       <c r="BJ10" s="1">
         <v>16.691447</v>
       </c>
       <c r="BK10" s="1">
-        <v>1368.260000</v>
+        <v>1368.26</v>
       </c>
       <c r="BL10" s="1">
-        <v>-357.930000</v>
+        <v>-357.93</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>60100.154708</v>
+        <v>60100.154708000002</v>
       </c>
       <c r="BO10" s="1">
-        <v>16.694487</v>
+        <v>16.694486999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1484.340000</v>
+        <v>1484.34</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-578.979000</v>
+        <v>-578.97900000000004</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>60111.006146</v>
@@ -2747,604 +3163,604 @@
         <v>16.697502</v>
       </c>
       <c r="BU10" s="1">
-        <v>1618.540000</v>
+        <v>1618.54</v>
       </c>
       <c r="BV10" s="1">
-        <v>-827.713000</v>
+        <v>-827.71299999999997</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>60121.827859</v>
+        <v>60121.827858999997</v>
       </c>
       <c r="BY10" s="1">
-        <v>16.700508</v>
+        <v>16.700507999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1771.980000</v>
+        <v>1771.98</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1097.130000</v>
+        <v>-1097.1300000000001</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>60133.695138</v>
+        <v>60133.695138000003</v>
       </c>
       <c r="CD10" s="1">
-        <v>16.703804</v>
+        <v>16.703804000000002</v>
       </c>
       <c r="CE10" s="1">
-        <v>2192.090000</v>
+        <v>2192.09</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1745.500000</v>
+        <v>-1745.5</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>59961.476726</v>
+        <v>59961.476726000001</v>
       </c>
       <c r="B11" s="1">
-        <v>16.655966</v>
+        <v>16.655965999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>1148.830000</v>
+        <v>1148.83</v>
       </c>
       <c r="D11" s="1">
-        <v>-254.786000</v>
+        <v>-254.786</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>59971.222159</v>
+        <v>59971.222158999997</v>
       </c>
       <c r="G11" s="1">
         <v>16.658673</v>
       </c>
       <c r="H11" s="1">
-        <v>1169.170000</v>
+        <v>1169.17</v>
       </c>
       <c r="I11" s="1">
-        <v>-213.120000</v>
+        <v>-213.12</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>59981.699611</v>
+        <v>59981.699610999996</v>
       </c>
       <c r="L11" s="1">
         <v>16.661583</v>
       </c>
       <c r="M11" s="1">
-        <v>1195.680000</v>
+        <v>1195.68</v>
       </c>
       <c r="N11" s="1">
-        <v>-148.462000</v>
+        <v>-148.46199999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>59992.236126</v>
+        <v>59992.236126000003</v>
       </c>
       <c r="Q11" s="1">
-        <v>16.664510</v>
+        <v>16.66451</v>
       </c>
       <c r="R11" s="1">
-        <v>1203.010000</v>
+        <v>1203.01</v>
       </c>
       <c r="S11" s="1">
-        <v>-127.106000</v>
+        <v>-127.10599999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>60002.743377</v>
+        <v>60002.743376999999</v>
       </c>
       <c r="V11" s="1">
-        <v>16.667429</v>
+        <v>16.667428999999998</v>
       </c>
       <c r="W11" s="1">
-        <v>1210.210000</v>
+        <v>1210.21</v>
       </c>
       <c r="X11" s="1">
-        <v>-106.804000</v>
+        <v>-106.804</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>60012.968403</v>
+        <v>60012.968402999999</v>
       </c>
       <c r="AA11" s="1">
-        <v>16.670269</v>
+        <v>16.670269000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>1217.390000</v>
+        <v>1217.3900000000001</v>
       </c>
       <c r="AC11" s="1">
-        <v>-90.500100</v>
+        <v>-90.500100000000003</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>60023.420132</v>
+        <v>60023.420131999999</v>
       </c>
       <c r="AF11" s="1">
-        <v>16.673172</v>
+        <v>16.673172000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>1222.260000</v>
+        <v>1222.26</v>
       </c>
       <c r="AH11" s="1">
-        <v>-86.155300</v>
+        <v>-86.155299999999997</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>60033.912968</v>
+        <v>60033.912967999997</v>
       </c>
       <c r="AK11" s="1">
-        <v>16.676087</v>
+        <v>16.676086999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>1229.470000</v>
+        <v>1229.47</v>
       </c>
       <c r="AM11" s="1">
-        <v>-89.877200</v>
+        <v>-89.877200000000002</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>60044.553642</v>
+        <v>60044.553641999999</v>
       </c>
       <c r="AP11" s="1">
         <v>16.679043</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1237.560000</v>
+        <v>1237.56</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.136000</v>
+        <v>-102.136</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>60055.501835</v>
+        <v>60055.501835000003</v>
       </c>
       <c r="AU11" s="1">
         <v>16.682084</v>
       </c>
       <c r="AV11" s="1">
-        <v>1247.770000</v>
+        <v>1247.77</v>
       </c>
       <c r="AW11" s="1">
-        <v>-121.746000</v>
+        <v>-121.746</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>60066.629579</v>
       </c>
       <c r="AZ11" s="1">
-        <v>16.685175</v>
+        <v>16.685175000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1256.370000</v>
+        <v>1256.3699999999999</v>
       </c>
       <c r="BB11" s="1">
-        <v>-139.409000</v>
+        <v>-139.40899999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>60078.360461</v>
+        <v>60078.360460999997</v>
       </c>
       <c r="BE11" s="1">
         <v>16.688433</v>
       </c>
       <c r="BF11" s="1">
-        <v>1297.420000</v>
+        <v>1297.42</v>
       </c>
       <c r="BG11" s="1">
-        <v>-221.708000</v>
+        <v>-221.708</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>60089.585925</v>
+        <v>60089.585924999999</v>
       </c>
       <c r="BJ11" s="1">
-        <v>16.691552</v>
+        <v>16.691552000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1368.360000</v>
+        <v>1368.36</v>
       </c>
       <c r="BL11" s="1">
-        <v>-357.956000</v>
+        <v>-357.95600000000002</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>60100.549983</v>
+        <v>60100.549982999997</v>
       </c>
       <c r="BO11" s="1">
-        <v>16.694597</v>
+        <v>16.694597000000002</v>
       </c>
       <c r="BP11" s="1">
-        <v>1484.280000</v>
+        <v>1484.28</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-578.948000</v>
+        <v>-578.94799999999998</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>60111.436672</v>
+        <v>60111.436672000003</v>
       </c>
       <c r="BT11" s="1">
-        <v>16.697621</v>
+        <v>16.697621000000002</v>
       </c>
       <c r="BU11" s="1">
-        <v>1618.460000</v>
+        <v>1618.46</v>
       </c>
       <c r="BV11" s="1">
-        <v>-827.566000</v>
+        <v>-827.56600000000003</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>60122.586737</v>
+        <v>60122.586736999998</v>
       </c>
       <c r="BY11" s="1">
-        <v>16.700719</v>
+        <v>16.700718999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1771.940000</v>
+        <v>1771.94</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1096.990000</v>
+        <v>-1096.99</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>60134.545317</v>
+        <v>60134.545316999996</v>
       </c>
       <c r="CD11" s="1">
-        <v>16.704040</v>
+        <v>16.704039999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>2193.850000</v>
+        <v>2193.85</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1745.110000</v>
+        <v>-1745.11</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>59961.819479</v>
+        <v>59961.819478999998</v>
       </c>
       <c r="B12" s="1">
-        <v>16.656061</v>
+        <v>16.656061000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>1148.870000</v>
+        <v>1148.8699999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>-254.829000</v>
+        <v>-254.82900000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>59971.569819</v>
+        <v>59971.569818999997</v>
       </c>
       <c r="G12" s="1">
-        <v>16.658769</v>
+        <v>16.658768999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>1169.660000</v>
+        <v>1169.6600000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-213.819000</v>
+        <v>-213.81899999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>59982.043371</v>
       </c>
       <c r="L12" s="1">
-        <v>16.661679</v>
+        <v>16.661678999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>1195.660000</v>
+        <v>1195.6600000000001</v>
       </c>
       <c r="N12" s="1">
-        <v>-148.686000</v>
+        <v>-148.68600000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>59992.656237</v>
+        <v>59992.656237000003</v>
       </c>
       <c r="Q12" s="1">
-        <v>16.664627</v>
+        <v>16.664626999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>1202.950000</v>
+        <v>1202.95</v>
       </c>
       <c r="S12" s="1">
-        <v>-127.069000</v>
+        <v>-127.069</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>60003.169935</v>
+        <v>60003.169934999998</v>
       </c>
       <c r="V12" s="1">
-        <v>16.667547</v>
+        <v>16.667546999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>1210.030000</v>
+        <v>1210.03</v>
       </c>
       <c r="X12" s="1">
-        <v>-106.795000</v>
+        <v>-106.795</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>60013.249772</v>
+        <v>60013.249772000003</v>
       </c>
       <c r="AA12" s="1">
         <v>16.670347</v>
       </c>
       <c r="AB12" s="1">
-        <v>1217.610000</v>
+        <v>1217.6099999999999</v>
       </c>
       <c r="AC12" s="1">
-        <v>-90.265200</v>
+        <v>-90.265199999999993</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>60023.763332</v>
+        <v>60023.763332000002</v>
       </c>
       <c r="AF12" s="1">
         <v>16.673268</v>
       </c>
       <c r="AG12" s="1">
-        <v>1222.280000</v>
+        <v>1222.28</v>
       </c>
       <c r="AH12" s="1">
-        <v>-86.214400</v>
+        <v>-86.214399999999998</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>60034.261194</v>
+        <v>60034.261193999999</v>
       </c>
       <c r="AK12" s="1">
-        <v>16.676184</v>
+        <v>16.676183999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>1229.460000</v>
+        <v>1229.46</v>
       </c>
       <c r="AM12" s="1">
-        <v>-89.871600</v>
+        <v>-89.871600000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>60044.914728</v>
+        <v>60044.914728000003</v>
       </c>
       <c r="AP12" s="1">
         <v>16.679143</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1237.550000</v>
+        <v>1237.55</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.121000</v>
+        <v>-102.121</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>60056.231945</v>
       </c>
       <c r="AU12" s="1">
-        <v>16.682287</v>
+        <v>16.682286999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>1247.750000</v>
+        <v>1247.75</v>
       </c>
       <c r="AW12" s="1">
-        <v>-121.711000</v>
+        <v>-121.711</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>60067.344316</v>
+        <v>60067.344316000002</v>
       </c>
       <c r="AZ12" s="1">
-        <v>16.685373</v>
+        <v>16.685372999999998</v>
       </c>
       <c r="BA12" s="1">
-        <v>1256.420000</v>
+        <v>1256.42</v>
       </c>
       <c r="BB12" s="1">
-        <v>-139.431000</v>
+        <v>-139.43100000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>60078.722539</v>
+        <v>60078.722539000002</v>
       </c>
       <c r="BE12" s="1">
-        <v>16.688534</v>
+        <v>16.688534000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1297.410000</v>
+        <v>1297.4100000000001</v>
       </c>
       <c r="BG12" s="1">
-        <v>-221.681000</v>
+        <v>-221.68100000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>60089.959676</v>
+        <v>60089.959675999999</v>
       </c>
       <c r="BJ12" s="1">
-        <v>16.691655</v>
+        <v>16.691655000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1368.340000</v>
+        <v>1368.34</v>
       </c>
       <c r="BL12" s="1">
-        <v>-357.976000</v>
+        <v>-357.976</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>60100.967155</v>
+        <v>60100.967154999998</v>
       </c>
       <c r="BO12" s="1">
         <v>16.694713</v>
       </c>
       <c r="BP12" s="1">
-        <v>1484.320000</v>
+        <v>1484.32</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-579.001000</v>
+        <v>-579.00099999999998</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>60112.179711</v>
+        <v>60112.179710999997</v>
       </c>
       <c r="BT12" s="1">
-        <v>16.697828</v>
+        <v>16.697828000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1618.450000</v>
+        <v>1618.45</v>
       </c>
       <c r="BV12" s="1">
-        <v>-827.414000</v>
+        <v>-827.41399999999999</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>60122.719696</v>
       </c>
       <c r="BY12" s="1">
-        <v>16.700755</v>
+        <v>16.700755000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1771.920000</v>
+        <v>1771.92</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1096.980000</v>
+        <v>-1096.98</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>60134.774930</v>
+        <v>60134.77493</v>
       </c>
       <c r="CD12" s="1">
-        <v>16.704104</v>
+        <v>16.704104000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>2194.010000</v>
+        <v>2194.0100000000002</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1745.230000</v>
+        <v>-1745.23</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>59962.161206</v>
+        <v>59962.161205999997</v>
       </c>
       <c r="B13" s="1">
-        <v>16.656156</v>
+        <v>16.656155999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>1148.920000</v>
+        <v>1148.92</v>
       </c>
       <c r="D13" s="1">
-        <v>-254.896000</v>
+        <v>-254.89599999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>59972.003483</v>
       </c>
       <c r="G13" s="1">
-        <v>16.658890</v>
+        <v>16.65889</v>
       </c>
       <c r="H13" s="1">
-        <v>1169.820000</v>
+        <v>1169.82</v>
       </c>
       <c r="I13" s="1">
-        <v>-213.315000</v>
+        <v>-213.315</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>59982.465467</v>
+        <v>59982.465467000002</v>
       </c>
       <c r="L13" s="1">
-        <v>16.661796</v>
+        <v>16.661795999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>1195.540000</v>
+        <v>1195.54</v>
       </c>
       <c r="N13" s="1">
-        <v>-148.683000</v>
+        <v>-148.68299999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>59992.933996</v>
@@ -3353,163 +3769,163 @@
         <v>16.664704</v>
       </c>
       <c r="R13" s="1">
-        <v>1202.970000</v>
+        <v>1202.97</v>
       </c>
       <c r="S13" s="1">
-        <v>-127.095000</v>
+        <v>-127.095</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>60003.429839</v>
+        <v>60003.429838999997</v>
       </c>
       <c r="V13" s="1">
-        <v>16.667619</v>
+        <v>16.667618999999998</v>
       </c>
       <c r="W13" s="1">
-        <v>1210.100000</v>
+        <v>1210.0999999999999</v>
       </c>
       <c r="X13" s="1">
-        <v>-106.900000</v>
+        <v>-106.9</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>60013.595351</v>
+        <v>60013.595351000004</v>
       </c>
       <c r="AA13" s="1">
-        <v>16.670443</v>
+        <v>16.670442999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>1217.620000</v>
+        <v>1217.6199999999999</v>
       </c>
       <c r="AC13" s="1">
-        <v>-90.306700</v>
+        <v>-90.306700000000006</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>60024.107060</v>
+        <v>60024.107060000002</v>
       </c>
       <c r="AF13" s="1">
-        <v>16.673363</v>
+        <v>16.673362999999998</v>
       </c>
       <c r="AG13" s="1">
-        <v>1222.330000</v>
+        <v>1222.33</v>
       </c>
       <c r="AH13" s="1">
-        <v>-86.182600</v>
+        <v>-86.182599999999994</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>60034.612327</v>
+        <v>60034.612327000003</v>
       </c>
       <c r="AK13" s="1">
-        <v>16.676281</v>
+        <v>16.676280999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>1229.450000</v>
+        <v>1229.45</v>
       </c>
       <c r="AM13" s="1">
-        <v>-89.886000</v>
+        <v>-89.885999999999996</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>60045.632936</v>
+        <v>60045.632936000002</v>
       </c>
       <c r="AP13" s="1">
-        <v>16.679342</v>
+        <v>16.679341999999998</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1237.540000</v>
+        <v>1237.54</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.136000</v>
+        <v>-102.136</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>60056.597528</v>
+        <v>60056.597527999998</v>
       </c>
       <c r="AU13" s="1">
         <v>16.682388</v>
       </c>
       <c r="AV13" s="1">
-        <v>1247.750000</v>
+        <v>1247.75</v>
       </c>
       <c r="AW13" s="1">
-        <v>-121.736000</v>
+        <v>-121.736</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>60067.703946</v>
+        <v>60067.703946000001</v>
       </c>
       <c r="AZ13" s="1">
-        <v>16.685473</v>
+        <v>16.685473000000002</v>
       </c>
       <c r="BA13" s="1">
-        <v>1256.370000</v>
+        <v>1256.3699999999999</v>
       </c>
       <c r="BB13" s="1">
-        <v>-139.375000</v>
+        <v>-139.375</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>60079.082139</v>
+        <v>60079.082138999998</v>
       </c>
       <c r="BE13" s="1">
         <v>16.688634</v>
       </c>
       <c r="BF13" s="1">
-        <v>1297.400000</v>
+        <v>1297.4000000000001</v>
       </c>
       <c r="BG13" s="1">
-        <v>-221.692000</v>
+        <v>-221.69200000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>60090.681581</v>
+        <v>60090.681580999997</v>
       </c>
       <c r="BJ13" s="1">
-        <v>16.691856</v>
+        <v>16.691856000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1368.340000</v>
+        <v>1368.34</v>
       </c>
       <c r="BL13" s="1">
-        <v>-357.939000</v>
+        <v>-357.93900000000002</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>60101.685821</v>
+        <v>60101.685820999999</v>
       </c>
       <c r="BO13" s="1">
         <v>16.694913</v>
       </c>
       <c r="BP13" s="1">
-        <v>1484.310000</v>
+        <v>1484.31</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-578.955000</v>
+        <v>-578.95500000000004</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>60112.312607</v>
@@ -3518,46 +3934,46 @@
         <v>16.697865</v>
       </c>
       <c r="BU13" s="1">
-        <v>1618.380000</v>
+        <v>1618.38</v>
       </c>
       <c r="BV13" s="1">
-        <v>-827.246000</v>
+        <v>-827.24599999999998</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>60123.144738</v>
+        <v>60123.144738000003</v>
       </c>
       <c r="BY13" s="1">
-        <v>16.700874</v>
+        <v>16.700873999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1771.950000</v>
+        <v>1771.95</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1096.940000</v>
+        <v>-1096.94</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>60135.297217</v>
+        <v>60135.297216999999</v>
       </c>
       <c r="CD13" s="1">
-        <v>16.704249</v>
+        <v>16.704249000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>2191.870000</v>
+        <v>2191.87</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1745.020000</v>
+        <v>-1745.02</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>59962.587774</v>
       </c>
@@ -3565,238 +3981,238 @@
         <v>16.656274</v>
       </c>
       <c r="C14" s="1">
-        <v>1149.080000</v>
+        <v>1149.08</v>
       </c>
       <c r="D14" s="1">
-        <v>-255.074000</v>
+        <v>-255.07400000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>59972.272152</v>
+        <v>59972.272151999998</v>
       </c>
       <c r="G14" s="1">
-        <v>16.658964</v>
+        <v>16.658964000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>1169.010000</v>
+        <v>1169.01</v>
       </c>
       <c r="I14" s="1">
-        <v>-213.344000</v>
+        <v>-213.34399999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>59982.739723</v>
+        <v>59982.739722999999</v>
       </c>
       <c r="L14" s="1">
-        <v>16.661872</v>
+        <v>16.661871999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>1195.520000</v>
+        <v>1195.52</v>
       </c>
       <c r="N14" s="1">
-        <v>-148.432000</v>
+        <v>-148.43199999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>59993.283212</v>
+        <v>59993.283212000002</v>
       </c>
       <c r="Q14" s="1">
-        <v>16.664801</v>
+        <v>16.664801000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>1203.050000</v>
+        <v>1203.05</v>
       </c>
       <c r="S14" s="1">
-        <v>-127.058000</v>
+        <v>-127.05800000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>60003.774559</v>
+        <v>60003.774558999998</v>
       </c>
       <c r="V14" s="1">
-        <v>16.667715</v>
+        <v>16.667715000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>1210.160000</v>
+        <v>1210.1600000000001</v>
       </c>
       <c r="X14" s="1">
-        <v>-107.087000</v>
+        <v>-107.087</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>60013.943569</v>
+        <v>60013.943569000003</v>
       </c>
       <c r="AA14" s="1">
-        <v>16.670540</v>
+        <v>16.670539999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>1217.590000</v>
+        <v>1217.5899999999999</v>
       </c>
       <c r="AC14" s="1">
-        <v>-90.404700</v>
+        <v>-90.404700000000005</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>60024.789585</v>
+        <v>60024.789584999999</v>
       </c>
       <c r="AF14" s="1">
-        <v>16.673553</v>
+        <v>16.673552999999998</v>
       </c>
       <c r="AG14" s="1">
-        <v>1222.200000</v>
+        <v>1222.2</v>
       </c>
       <c r="AH14" s="1">
-        <v>-86.194700</v>
+        <v>-86.194699999999997</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>60035.305732</v>
+        <v>60035.305732000001</v>
       </c>
       <c r="AK14" s="1">
-        <v>16.676474</v>
+        <v>16.676473999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>1229.450000</v>
+        <v>1229.45</v>
       </c>
       <c r="AM14" s="1">
-        <v>-89.909900</v>
+        <v>-89.909899999999993</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>60045.993067</v>
+        <v>60045.993067000003</v>
       </c>
       <c r="AP14" s="1">
-        <v>16.679443</v>
+        <v>16.679442999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1237.550000</v>
+        <v>1237.55</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.133000</v>
+        <v>-102.133</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>60056.958584</v>
       </c>
       <c r="AU14" s="1">
-        <v>16.682488</v>
+        <v>16.682487999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>1247.750000</v>
+        <v>1247.75</v>
       </c>
       <c r="AW14" s="1">
-        <v>-121.747000</v>
+        <v>-121.747</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>60068.061720</v>
+        <v>60068.061719999998</v>
       </c>
       <c r="AZ14" s="1">
-        <v>16.685573</v>
+        <v>16.685573000000002</v>
       </c>
       <c r="BA14" s="1">
-        <v>1256.360000</v>
+        <v>1256.3599999999999</v>
       </c>
       <c r="BB14" s="1">
-        <v>-139.396000</v>
+        <v>-139.39599999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>60079.750290</v>
+        <v>60079.750290000004</v>
       </c>
       <c r="BE14" s="1">
-        <v>16.688820</v>
+        <v>16.68882</v>
       </c>
       <c r="BF14" s="1">
-        <v>1297.410000</v>
+        <v>1297.4100000000001</v>
       </c>
       <c r="BG14" s="1">
-        <v>-221.716000</v>
+        <v>-221.71600000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>60091.115610</v>
+        <v>60091.115610000001</v>
       </c>
       <c r="BJ14" s="1">
-        <v>16.691977</v>
+        <v>16.691977000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1368.310000</v>
+        <v>1368.31</v>
       </c>
       <c r="BL14" s="1">
-        <v>-357.959000</v>
+        <v>-357.959</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>60101.801886</v>
+        <v>60101.801886000001</v>
       </c>
       <c r="BO14" s="1">
-        <v>16.694945</v>
+        <v>16.694945000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1484.300000</v>
+        <v>1484.3</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-578.975000</v>
+        <v>-578.97500000000002</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>60112.721320</v>
+        <v>60112.721319999997</v>
       </c>
       <c r="BT14" s="1">
-        <v>16.697978</v>
+        <v>16.697977999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1618.280000</v>
+        <v>1618.28</v>
       </c>
       <c r="BV14" s="1">
-        <v>-827.252000</v>
+        <v>-827.25199999999995</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>60123.592160</v>
+        <v>60123.59216</v>
       </c>
       <c r="BY14" s="1">
-        <v>16.700998</v>
+        <v>16.700997999999998</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1772.050000</v>
+        <v>1772.05</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1096.850000</v>
+        <v>-1096.8499999999999</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>60135.813553</v>
@@ -3805,255 +4221,255 @@
         <v>16.704393</v>
       </c>
       <c r="CE14" s="1">
-        <v>2192.470000</v>
+        <v>2192.4699999999998</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1744.800000</v>
+        <v>-1744.8</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>59962.861556</v>
+        <v>59962.861556000003</v>
       </c>
       <c r="B15" s="1">
-        <v>16.656350</v>
+        <v>16.65635</v>
       </c>
       <c r="C15" s="1">
-        <v>1148.910000</v>
+        <v>1148.9100000000001</v>
       </c>
       <c r="D15" s="1">
-        <v>-254.912000</v>
+        <v>-254.91200000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>59972.617367</v>
+        <v>59972.617366999999</v>
       </c>
       <c r="G15" s="1">
-        <v>16.659060</v>
+        <v>16.65906</v>
       </c>
       <c r="H15" s="1">
-        <v>1169.280000</v>
+        <v>1169.28</v>
       </c>
       <c r="I15" s="1">
-        <v>-213.381000</v>
+        <v>-213.381</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>59983.081963</v>
+        <v>59983.081962999997</v>
       </c>
       <c r="L15" s="1">
-        <v>16.661967</v>
+        <v>16.661967000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>1195.420000</v>
+        <v>1195.42</v>
       </c>
       <c r="N15" s="1">
-        <v>-148.460000</v>
+        <v>-148.46</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>59993.631868</v>
+        <v>59993.631867999997</v>
       </c>
       <c r="Q15" s="1">
-        <v>16.664898</v>
+        <v>16.664898000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>1203.030000</v>
+        <v>1203.03</v>
       </c>
       <c r="S15" s="1">
-        <v>-127.134000</v>
+        <v>-127.134</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>60004.366285</v>
+        <v>60004.366284999996</v>
       </c>
       <c r="V15" s="1">
-        <v>16.667880</v>
+        <v>16.66788</v>
       </c>
       <c r="W15" s="1">
-        <v>1210.110000</v>
+        <v>1210.1099999999999</v>
       </c>
       <c r="X15" s="1">
-        <v>-106.818000</v>
+        <v>-106.818</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>60014.640912</v>
+        <v>60014.640912000003</v>
       </c>
       <c r="AA15" s="1">
-        <v>16.670734</v>
+        <v>16.670733999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>1217.580000</v>
+        <v>1217.58</v>
       </c>
       <c r="AC15" s="1">
-        <v>-90.360900</v>
+        <v>-90.360900000000001</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>60025.132302</v>
+        <v>60025.132301999998</v>
       </c>
       <c r="AF15" s="1">
         <v>16.673648</v>
       </c>
       <c r="AG15" s="1">
-        <v>1222.200000</v>
+        <v>1222.2</v>
       </c>
       <c r="AH15" s="1">
-        <v>-86.175000</v>
+        <v>-86.174999999999997</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>60035.659414</v>
+        <v>60035.659414000002</v>
       </c>
       <c r="AK15" s="1">
         <v>16.676572</v>
       </c>
       <c r="AL15" s="1">
-        <v>1229.470000</v>
+        <v>1229.47</v>
       </c>
       <c r="AM15" s="1">
-        <v>-89.868000</v>
+        <v>-89.867999999999995</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>60046.352630</v>
+        <v>60046.352630000001</v>
       </c>
       <c r="AP15" s="1">
-        <v>16.679542</v>
+        <v>16.679542000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1237.550000</v>
+        <v>1237.55</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.135000</v>
+        <v>-102.13500000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>60057.632183</v>
+        <v>60057.632183000002</v>
       </c>
       <c r="AU15" s="1">
-        <v>16.682676</v>
+        <v>16.682676000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>1247.720000</v>
+        <v>1247.72</v>
       </c>
       <c r="AW15" s="1">
-        <v>-121.753000</v>
+        <v>-121.753</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>60068.727673</v>
+        <v>60068.727673000001</v>
       </c>
       <c r="AZ15" s="1">
         <v>16.685758</v>
       </c>
       <c r="BA15" s="1">
-        <v>1256.380000</v>
+        <v>1256.3800000000001</v>
       </c>
       <c r="BB15" s="1">
-        <v>-139.418000</v>
+        <v>-139.41800000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>60080.203593</v>
+        <v>60080.203592999998</v>
       </c>
       <c r="BE15" s="1">
         <v>16.688945</v>
       </c>
       <c r="BF15" s="1">
-        <v>1297.420000</v>
+        <v>1297.42</v>
       </c>
       <c r="BG15" s="1">
-        <v>-221.692000</v>
+        <v>-221.69200000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>60091.517867</v>
+        <v>60091.517867000002</v>
       </c>
       <c r="BJ15" s="1">
-        <v>16.692088</v>
+        <v>16.692087999999998</v>
       </c>
       <c r="BK15" s="1">
-        <v>1368.300000</v>
+        <v>1368.3</v>
       </c>
       <c r="BL15" s="1">
-        <v>-357.930000</v>
+        <v>-357.93</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>60102.210093</v>
+        <v>60102.210093000002</v>
       </c>
       <c r="BO15" s="1">
         <v>16.695058</v>
       </c>
       <c r="BP15" s="1">
-        <v>1484.280000</v>
+        <v>1484.28</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-578.957000</v>
+        <v>-578.95699999999999</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>60113.148862</v>
+        <v>60113.148862000002</v>
       </c>
       <c r="BT15" s="1">
-        <v>16.698097</v>
+        <v>16.698097000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>1618.220000</v>
+        <v>1618.22</v>
       </c>
       <c r="BV15" s="1">
-        <v>-827.176000</v>
+        <v>-827.17600000000004</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>60124.023429</v>
+        <v>60124.023429000001</v>
       </c>
       <c r="BY15" s="1">
-        <v>16.701118</v>
+        <v>16.701118000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1772.020000</v>
+        <v>1772.02</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1096.950000</v>
+        <v>-1096.95</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
         <v>60136.362127</v>
@@ -4062,225 +4478,225 @@
         <v>16.704545</v>
       </c>
       <c r="CE15" s="1">
-        <v>2193.530000</v>
+        <v>2193.5300000000002</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1744.670000</v>
+        <v>-1744.67</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>59963.203796</v>
+        <v>59963.203796000002</v>
       </c>
       <c r="B16" s="1">
-        <v>16.656445</v>
+        <v>16.656445000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>1148.830000</v>
+        <v>1148.83</v>
       </c>
       <c r="D16" s="1">
-        <v>-255.026000</v>
+        <v>-255.02600000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>59972.961591</v>
+        <v>59972.961590999999</v>
       </c>
       <c r="G16" s="1">
-        <v>16.659156</v>
+        <v>16.659155999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>1168.580000</v>
+        <v>1168.58</v>
       </c>
       <c r="I16" s="1">
-        <v>-214.488000</v>
+        <v>-214.488</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>59983.428665</v>
+        <v>59983.428664999999</v>
       </c>
       <c r="L16" s="1">
-        <v>16.662064</v>
+        <v>16.662064000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>1195.370000</v>
+        <v>1195.3699999999999</v>
       </c>
       <c r="N16" s="1">
-        <v>-148.731000</v>
+        <v>-148.73099999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>59994.328250</v>
+        <v>59994.328249999999</v>
       </c>
       <c r="Q16" s="1">
         <v>16.665091</v>
       </c>
       <c r="R16" s="1">
-        <v>1202.930000</v>
+        <v>1202.93</v>
       </c>
       <c r="S16" s="1">
-        <v>-127.191000</v>
+        <v>-127.191</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>60004.479405</v>
+        <v>60004.479404999998</v>
       </c>
       <c r="V16" s="1">
         <v>16.667911</v>
       </c>
       <c r="W16" s="1">
-        <v>1210.070000</v>
+        <v>1210.07</v>
       </c>
       <c r="X16" s="1">
-        <v>-106.903000</v>
+        <v>-106.90300000000001</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>60014.989600</v>
+        <v>60014.989600000001</v>
       </c>
       <c r="AA16" s="1">
-        <v>16.670830</v>
+        <v>16.670829999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>1217.550000</v>
+        <v>1217.55</v>
       </c>
       <c r="AC16" s="1">
-        <v>-90.299200</v>
+        <v>-90.299199999999999</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>60025.475027</v>
       </c>
       <c r="AF16" s="1">
-        <v>16.673743</v>
+        <v>16.673743000000002</v>
       </c>
       <c r="AG16" s="1">
-        <v>1222.240000</v>
+        <v>1222.24</v>
       </c>
       <c r="AH16" s="1">
-        <v>-86.139000</v>
+        <v>-86.138999999999996</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>60036.008599</v>
+        <v>60036.008599000001</v>
       </c>
       <c r="AK16" s="1">
         <v>16.676669</v>
       </c>
       <c r="AL16" s="1">
-        <v>1229.450000</v>
+        <v>1229.45</v>
       </c>
       <c r="AM16" s="1">
-        <v>-89.898500</v>
+        <v>-89.898499999999999</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>60047.031184</v>
+        <v>60047.031183999999</v>
       </c>
       <c r="AP16" s="1">
         <v>16.679731</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1237.550000</v>
+        <v>1237.55</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.110000</v>
+        <v>-102.11</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>60058.087015</v>
+        <v>60058.087014999997</v>
       </c>
       <c r="AU16" s="1">
-        <v>16.682802</v>
+        <v>16.682801999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>1247.730000</v>
+        <v>1247.73</v>
       </c>
       <c r="AW16" s="1">
-        <v>-121.719000</v>
+        <v>-121.71899999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>60069.139832</v>
+        <v>60069.139832000001</v>
       </c>
       <c r="AZ16" s="1">
         <v>16.685872</v>
       </c>
       <c r="BA16" s="1">
-        <v>1256.380000</v>
+        <v>1256.3800000000001</v>
       </c>
       <c r="BB16" s="1">
-        <v>-139.414000</v>
+        <v>-139.41399999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>60080.563230</v>
+        <v>60080.56323</v>
       </c>
       <c r="BE16" s="1">
         <v>16.689045</v>
       </c>
       <c r="BF16" s="1">
-        <v>1297.400000</v>
+        <v>1297.4000000000001</v>
       </c>
       <c r="BG16" s="1">
-        <v>-221.716000</v>
+        <v>-221.71600000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>60091.892811</v>
+        <v>60091.892810999998</v>
       </c>
       <c r="BJ16" s="1">
-        <v>16.692192</v>
+        <v>16.692191999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1368.280000</v>
+        <v>1368.28</v>
       </c>
       <c r="BL16" s="1">
-        <v>-357.926000</v>
+        <v>-357.92599999999999</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>60102.608662</v>
+        <v>60102.608661999999</v>
       </c>
       <c r="BO16" s="1">
         <v>16.695169</v>
       </c>
       <c r="BP16" s="1">
-        <v>1484.330000</v>
+        <v>1484.33</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-578.967000</v>
+        <v>-578.96699999999998</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>60113.570495</v>
@@ -4289,694 +4705,694 @@
         <v>16.698214</v>
       </c>
       <c r="BU16" s="1">
-        <v>1617.940000</v>
+        <v>1617.94</v>
       </c>
       <c r="BV16" s="1">
-        <v>-827.272000</v>
+        <v>-827.27200000000005</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>60124.445278</v>
+        <v>60124.445277999999</v>
       </c>
       <c r="BY16" s="1">
         <v>16.701235</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1772.190000</v>
+        <v>1772.19</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1097.000000</v>
+        <v>-1097</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>60136.893342</v>
+        <v>60136.893342000003</v>
       </c>
       <c r="CD16" s="1">
-        <v>16.704693</v>
+        <v>16.704692999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>2191.750000</v>
+        <v>2191.75</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1745.570000</v>
+        <v>-1745.57</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>59963.544083</v>
+        <v>59963.544083000001</v>
       </c>
       <c r="B17" s="1">
-        <v>16.656540</v>
+        <v>16.65654</v>
       </c>
       <c r="C17" s="1">
-        <v>1148.780000</v>
+        <v>1148.78</v>
       </c>
       <c r="D17" s="1">
-        <v>-254.861000</v>
+        <v>-254.86099999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>59973.652054</v>
+        <v>59973.652053999998</v>
       </c>
       <c r="G17" s="1">
-        <v>16.659348</v>
+        <v>16.659348000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>1169.560000</v>
+        <v>1169.56</v>
       </c>
       <c r="I17" s="1">
-        <v>-214.112000</v>
+        <v>-214.11199999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>59984.124056</v>
+        <v>59984.124056000001</v>
       </c>
       <c r="L17" s="1">
         <v>16.662257</v>
       </c>
       <c r="M17" s="1">
-        <v>1195.590000</v>
+        <v>1195.5899999999999</v>
       </c>
       <c r="N17" s="1">
-        <v>-148.574000</v>
+        <v>-148.57400000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>59994.678426</v>
+        <v>59994.678425999999</v>
       </c>
       <c r="Q17" s="1">
-        <v>16.665188</v>
+        <v>16.665188000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>1202.970000</v>
+        <v>1202.97</v>
       </c>
       <c r="S17" s="1">
-        <v>-127.142000</v>
+        <v>-127.142</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>60004.814174</v>
+        <v>60004.814173999999</v>
       </c>
       <c r="V17" s="1">
         <v>16.668004</v>
       </c>
       <c r="W17" s="1">
-        <v>1210.030000</v>
+        <v>1210.03</v>
       </c>
       <c r="X17" s="1">
-        <v>-106.874000</v>
+        <v>-106.874</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>60015.339776</v>
+        <v>60015.339776000001</v>
       </c>
       <c r="AA17" s="1">
         <v>16.670928</v>
       </c>
       <c r="AB17" s="1">
-        <v>1217.530000</v>
+        <v>1217.53</v>
       </c>
       <c r="AC17" s="1">
-        <v>-90.357400</v>
+        <v>-90.357399999999998</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>60026.131985</v>
       </c>
       <c r="AF17" s="1">
-        <v>16.673926</v>
+        <v>16.673926000000002</v>
       </c>
       <c r="AG17" s="1">
-        <v>1222.270000</v>
+        <v>1222.27</v>
       </c>
       <c r="AH17" s="1">
-        <v>-86.132100</v>
+        <v>-86.132099999999994</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>60036.678163</v>
+        <v>60036.678162999997</v>
       </c>
       <c r="AK17" s="1">
         <v>16.676855</v>
       </c>
       <c r="AL17" s="1">
-        <v>1229.450000</v>
+        <v>1229.45</v>
       </c>
       <c r="AM17" s="1">
-        <v>-89.870000</v>
+        <v>-89.87</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>60047.465157</v>
+        <v>60047.465156999999</v>
       </c>
       <c r="AP17" s="1">
-        <v>16.679851</v>
+        <v>16.679850999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1237.540000</v>
+        <v>1237.54</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.139000</v>
+        <v>-102.139</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>60058.455510</v>
+        <v>60058.45551</v>
       </c>
       <c r="AU17" s="1">
-        <v>16.682904</v>
+        <v>16.682904000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>1247.740000</v>
+        <v>1247.74</v>
       </c>
       <c r="AW17" s="1">
-        <v>-121.740000</v>
+        <v>-121.74</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>60069.524231</v>
+        <v>60069.524231000003</v>
       </c>
       <c r="AZ17" s="1">
         <v>16.685979</v>
       </c>
       <c r="BA17" s="1">
-        <v>1256.400000</v>
+        <v>1256.4000000000001</v>
       </c>
       <c r="BB17" s="1">
-        <v>-139.390000</v>
+        <v>-139.38999999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>60080.922328</v>
+        <v>60080.922328000001</v>
       </c>
       <c r="BE17" s="1">
         <v>16.689145</v>
       </c>
       <c r="BF17" s="1">
-        <v>1297.430000</v>
+        <v>1297.43</v>
       </c>
       <c r="BG17" s="1">
-        <v>-221.704000</v>
+        <v>-221.70400000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>60092.314905</v>
+        <v>60092.314904999999</v>
       </c>
       <c r="BJ17" s="1">
-        <v>16.692310</v>
+        <v>16.692309999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1368.350000</v>
+        <v>1368.35</v>
       </c>
       <c r="BL17" s="1">
-        <v>-357.949000</v>
+        <v>-357.94900000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>60103.071148</v>
+        <v>60103.071148000003</v>
       </c>
       <c r="BO17" s="1">
-        <v>16.695298</v>
+        <v>16.695298000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1484.310000</v>
+        <v>1484.31</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-578.980000</v>
+        <v>-578.98</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>60113.977180</v>
+        <v>60113.977180000002</v>
       </c>
       <c r="BT17" s="1">
-        <v>16.698327</v>
+        <v>16.698326999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1617.820000</v>
+        <v>1617.82</v>
       </c>
       <c r="BV17" s="1">
-        <v>-827.215000</v>
+        <v>-827.21500000000003</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>60124.867343</v>
+        <v>60124.867342999998</v>
       </c>
       <c r="BY17" s="1">
         <v>16.701352</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1772.060000</v>
+        <v>1772.06</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1096.830000</v>
+        <v>-1096.83</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>60137.411694</v>
+        <v>60137.411694000002</v>
       </c>
       <c r="CD17" s="1">
-        <v>16.704837</v>
+        <v>16.704837000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>2192.840000</v>
+        <v>2192.84</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1747.230000</v>
+        <v>-1747.23</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
         <v>59964.225586</v>
       </c>
       <c r="B18" s="1">
-        <v>16.656729</v>
+        <v>16.656728999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>1148.880000</v>
+        <v>1148.8800000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>-254.951000</v>
+        <v>-254.95099999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>59973.997238</v>
+        <v>59973.997238000004</v>
       </c>
       <c r="G18" s="1">
-        <v>16.659444</v>
+        <v>16.659444000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>1169.550000</v>
+        <v>1169.55</v>
       </c>
       <c r="I18" s="1">
-        <v>-213.072000</v>
+        <v>-213.072</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>59984.475719</v>
+        <v>59984.475719000002</v>
       </c>
       <c r="L18" s="1">
-        <v>16.662354</v>
+        <v>16.662354000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>1195.600000</v>
+        <v>1195.5999999999999</v>
       </c>
       <c r="N18" s="1">
-        <v>-148.598000</v>
+        <v>-148.59800000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>59995.027642</v>
+        <v>59995.027642000001</v>
       </c>
       <c r="Q18" s="1">
-        <v>16.665285</v>
+        <v>16.665285000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>1202.990000</v>
+        <v>1202.99</v>
       </c>
       <c r="S18" s="1">
-        <v>-127.058000</v>
+        <v>-127.05800000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>60005.460988</v>
+        <v>60005.460987999999</v>
       </c>
       <c r="V18" s="1">
         <v>16.668184</v>
       </c>
       <c r="W18" s="1">
-        <v>1210.050000</v>
+        <v>1210.05</v>
       </c>
       <c r="X18" s="1">
-        <v>-106.829000</v>
+        <v>-106.82899999999999</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>60015.996479</v>
+        <v>60015.996479000001</v>
       </c>
       <c r="AA18" s="1">
-        <v>16.671110</v>
+        <v>16.671109999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>1217.580000</v>
+        <v>1217.58</v>
       </c>
       <c r="AC18" s="1">
-        <v>-90.289200</v>
+        <v>-90.289199999999994</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>60026.508688</v>
+        <v>60026.508688000002</v>
       </c>
       <c r="AF18" s="1">
-        <v>16.674030</v>
+        <v>16.674029999999998</v>
       </c>
       <c r="AG18" s="1">
-        <v>1222.250000</v>
+        <v>1222.25</v>
       </c>
       <c r="AH18" s="1">
-        <v>-86.268000</v>
+        <v>-86.268000000000001</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>60037.049706</v>
+        <v>60037.049705999998</v>
       </c>
       <c r="AK18" s="1">
-        <v>16.676958</v>
+        <v>16.676957999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>1229.470000</v>
+        <v>1229.47</v>
       </c>
       <c r="AM18" s="1">
-        <v>-89.857500</v>
+        <v>-89.857500000000002</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>60047.827734</v>
+        <v>60047.827733999999</v>
       </c>
       <c r="AP18" s="1">
         <v>16.679952</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1237.550000</v>
+        <v>1237.55</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.142000</v>
+        <v>-102.142</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>60058.821062</v>
+        <v>60058.821062000003</v>
       </c>
       <c r="AU18" s="1">
-        <v>16.683006</v>
+        <v>16.683005999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>1247.740000</v>
+        <v>1247.74</v>
       </c>
       <c r="AW18" s="1">
-        <v>-121.749000</v>
+        <v>-121.749</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>60069.883365</v>
+        <v>60069.883365000002</v>
       </c>
       <c r="AZ18" s="1">
-        <v>16.686079</v>
+        <v>16.686078999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1256.380000</v>
+        <v>1256.3800000000001</v>
       </c>
       <c r="BB18" s="1">
-        <v>-139.421000</v>
+        <v>-139.42099999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>60081.344920</v>
+        <v>60081.344920000003</v>
       </c>
       <c r="BE18" s="1">
-        <v>16.689262</v>
+        <v>16.689261999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1297.430000</v>
+        <v>1297.43</v>
       </c>
       <c r="BG18" s="1">
-        <v>-221.708000</v>
+        <v>-221.708</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>60092.664597</v>
+        <v>60092.664597000003</v>
       </c>
       <c r="BJ18" s="1">
-        <v>16.692407</v>
+        <v>16.692406999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1368.330000</v>
+        <v>1368.33</v>
       </c>
       <c r="BL18" s="1">
-        <v>-357.892000</v>
+        <v>-357.892</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>60103.426322</v>
+        <v>60103.426321999999</v>
       </c>
       <c r="BO18" s="1">
-        <v>16.695396</v>
+        <v>16.695395999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1484.300000</v>
+        <v>1484.3</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-578.945000</v>
+        <v>-578.94500000000005</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>60114.394812</v>
+        <v>60114.394811999999</v>
       </c>
       <c r="BT18" s="1">
-        <v>16.698443</v>
+        <v>16.698443000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>1617.770000</v>
+        <v>1617.77</v>
       </c>
       <c r="BV18" s="1">
-        <v>-827.221000</v>
+        <v>-827.221</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>60125.288942</v>
+        <v>60125.288941999999</v>
       </c>
       <c r="BY18" s="1">
-        <v>16.701469</v>
+        <v>16.701468999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1771.990000</v>
+        <v>1771.99</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1097.000000</v>
+        <v>-1097</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>60137.929486</v>
+        <v>60137.929486000001</v>
       </c>
       <c r="CD18" s="1">
-        <v>16.704980</v>
+        <v>16.704979999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>2194.570000</v>
+        <v>2194.5700000000002</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1746.300000</v>
+        <v>-1746.3</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>59964.570887</v>
+        <v>59964.570887000002</v>
       </c>
       <c r="B19" s="1">
-        <v>16.656825</v>
+        <v>16.656825000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>1148.620000</v>
+        <v>1148.6199999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>-254.901000</v>
+        <v>-254.90100000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>59974.346917</v>
+        <v>59974.346917000003</v>
       </c>
       <c r="G19" s="1">
-        <v>16.659541</v>
+        <v>16.659541000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>1168.700000</v>
+        <v>1168.7</v>
       </c>
       <c r="I19" s="1">
-        <v>-214.623000</v>
+        <v>-214.62299999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>59984.819123</v>
+        <v>59984.819123000001</v>
       </c>
       <c r="L19" s="1">
-        <v>16.662450</v>
+        <v>16.66245</v>
       </c>
       <c r="M19" s="1">
-        <v>1195.820000</v>
+        <v>1195.82</v>
       </c>
       <c r="N19" s="1">
-        <v>-148.649000</v>
+        <v>-148.649</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>59995.674891</v>
+        <v>59995.674891000002</v>
       </c>
       <c r="Q19" s="1">
-        <v>16.665465</v>
+        <v>16.665465000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>1202.980000</v>
+        <v>1202.98</v>
       </c>
       <c r="S19" s="1">
-        <v>-127.123000</v>
+        <v>-127.123</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>60005.845395</v>
+        <v>60005.845394999997</v>
       </c>
       <c r="V19" s="1">
-        <v>16.668290</v>
+        <v>16.668289999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>1210.120000</v>
+        <v>1210.1199999999999</v>
       </c>
       <c r="X19" s="1">
-        <v>-106.735000</v>
+        <v>-106.735</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>60016.382948</v>
+        <v>60016.382947999999</v>
       </c>
       <c r="AA19" s="1">
-        <v>16.671217</v>
+        <v>16.671216999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>1217.500000</v>
+        <v>1217.5</v>
       </c>
       <c r="AC19" s="1">
-        <v>-90.382600</v>
+        <v>-90.382599999999996</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>60026.850960</v>
+        <v>60026.850960000003</v>
       </c>
       <c r="AF19" s="1">
         <v>16.674125</v>
       </c>
       <c r="AG19" s="1">
-        <v>1222.220000</v>
+        <v>1222.22</v>
       </c>
       <c r="AH19" s="1">
-        <v>-86.213500</v>
+        <v>-86.213499999999996</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>60037.398354</v>
+        <v>60037.398353999997</v>
       </c>
       <c r="AK19" s="1">
-        <v>16.677055</v>
+        <v>16.677054999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>1229.460000</v>
+        <v>1229.46</v>
       </c>
       <c r="AM19" s="1">
-        <v>-89.884500</v>
+        <v>-89.884500000000003</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>60048.185348</v>
+        <v>60048.185347999999</v>
       </c>
       <c r="AP19" s="1">
-        <v>16.680051</v>
+        <v>16.680050999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1237.560000</v>
+        <v>1237.56</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.121000</v>
+        <v>-102.121</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>60059.248645</v>
@@ -4985,195 +5401,195 @@
         <v>16.683125</v>
       </c>
       <c r="AV19" s="1">
-        <v>1247.740000</v>
+        <v>1247.74</v>
       </c>
       <c r="AW19" s="1">
-        <v>-121.754000</v>
+        <v>-121.754</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>60070.607031</v>
       </c>
       <c r="AZ19" s="1">
-        <v>16.686280</v>
+        <v>16.68628</v>
       </c>
       <c r="BA19" s="1">
-        <v>1256.390000</v>
+        <v>1256.3900000000001</v>
       </c>
       <c r="BB19" s="1">
-        <v>-139.384000</v>
+        <v>-139.38399999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>60081.645960</v>
+        <v>60081.645960000002</v>
       </c>
       <c r="BE19" s="1">
         <v>16.689346</v>
       </c>
       <c r="BF19" s="1">
-        <v>1297.380000</v>
+        <v>1297.3800000000001</v>
       </c>
       <c r="BG19" s="1">
-        <v>-221.702000</v>
+        <v>-221.702</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>60093.043530</v>
+        <v>60093.043530000003</v>
       </c>
       <c r="BJ19" s="1">
-        <v>16.692512</v>
+        <v>16.692512000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1368.310000</v>
+        <v>1368.31</v>
       </c>
       <c r="BL19" s="1">
-        <v>-357.927000</v>
+        <v>-357.92700000000002</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>60103.847882</v>
+        <v>60103.847882000002</v>
       </c>
       <c r="BO19" s="1">
-        <v>16.695513</v>
+        <v>16.695512999999998</v>
       </c>
       <c r="BP19" s="1">
-        <v>1484.310000</v>
+        <v>1484.31</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-578.964000</v>
+        <v>-578.96400000000006</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
         <v>60114.809963</v>
       </c>
       <c r="BT19" s="1">
-        <v>16.698558</v>
+        <v>16.698557999999998</v>
       </c>
       <c r="BU19" s="1">
-        <v>1617.770000</v>
+        <v>1617.77</v>
       </c>
       <c r="BV19" s="1">
-        <v>-827.392000</v>
+        <v>-827.39200000000005</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>60125.709581</v>
+        <v>60125.709581000003</v>
       </c>
       <c r="BY19" s="1">
-        <v>16.701586</v>
+        <v>16.701585999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1771.990000</v>
+        <v>1771.99</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1097.000000</v>
+        <v>-1097</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>60138.450284</v>
+        <v>60138.450283999999</v>
       </c>
       <c r="CD19" s="1">
-        <v>16.705125</v>
+        <v>16.705124999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>2194.200000</v>
+        <v>2194.1999999999998</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1746.150000</v>
+        <v>-1746.15</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>59964.912050</v>
+        <v>59964.912049999999</v>
       </c>
       <c r="B20" s="1">
-        <v>16.656920</v>
+        <v>16.65692</v>
       </c>
       <c r="C20" s="1">
-        <v>1148.960000</v>
+        <v>1148.96</v>
       </c>
       <c r="D20" s="1">
-        <v>-255.007000</v>
+        <v>-255.00700000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>59974.998196</v>
       </c>
       <c r="G20" s="1">
-        <v>16.659722</v>
+        <v>16.659721999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>1169.710000</v>
+        <v>1169.71</v>
       </c>
       <c r="I20" s="1">
-        <v>-213.792000</v>
+        <v>-213.792</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>59985.475654</v>
+        <v>59985.475654000002</v>
       </c>
       <c r="L20" s="1">
-        <v>16.662632</v>
+        <v>16.662631999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>1195.460000</v>
+        <v>1195.46</v>
       </c>
       <c r="N20" s="1">
-        <v>-148.663000</v>
+        <v>-148.66300000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>59996.074201</v>
+        <v>59996.074201000003</v>
       </c>
       <c r="Q20" s="1">
-        <v>16.665576</v>
+        <v>16.665576000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>1203.070000</v>
+        <v>1203.07</v>
       </c>
       <c r="S20" s="1">
-        <v>-127.180000</v>
+        <v>-127.18</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>60006.185117</v>
+        <v>60006.185117000001</v>
       </c>
       <c r="V20" s="1">
-        <v>16.668385</v>
+        <v>16.668385000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>1209.950000</v>
+        <v>1209.95</v>
       </c>
       <c r="X20" s="1">
-        <v>-106.837000</v>
+        <v>-106.837</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>60016.732547</v>
@@ -5182,467 +5598,467 @@
         <v>16.671315</v>
       </c>
       <c r="AB20" s="1">
-        <v>1217.550000</v>
+        <v>1217.55</v>
       </c>
       <c r="AC20" s="1">
-        <v>-90.353300</v>
+        <v>-90.353300000000004</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>60027.192709</v>
+        <v>60027.192709000003</v>
       </c>
       <c r="AF20" s="1">
-        <v>16.674220</v>
+        <v>16.674219999999998</v>
       </c>
       <c r="AG20" s="1">
-        <v>1222.320000</v>
+        <v>1222.32</v>
       </c>
       <c r="AH20" s="1">
-        <v>-86.165100</v>
+        <v>-86.165099999999995</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>60037.812513</v>
+        <v>60037.812512999997</v>
       </c>
       <c r="AK20" s="1">
-        <v>16.677170</v>
+        <v>16.67717</v>
       </c>
       <c r="AL20" s="1">
-        <v>1229.470000</v>
+        <v>1229.47</v>
       </c>
       <c r="AM20" s="1">
-        <v>-89.859200</v>
+        <v>-89.859200000000001</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>60048.611411</v>
+        <v>60048.611410999998</v>
       </c>
       <c r="AP20" s="1">
-        <v>16.680170</v>
+        <v>16.68017</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1237.550000</v>
+        <v>1237.55</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.128000</v>
+        <v>-102.128</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>60059.548729</v>
+        <v>60059.548729000002</v>
       </c>
       <c r="AU20" s="1">
         <v>16.683208</v>
       </c>
       <c r="AV20" s="1">
-        <v>1247.760000</v>
+        <v>1247.76</v>
       </c>
       <c r="AW20" s="1">
-        <v>-121.740000</v>
+        <v>-121.74</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>60070.983461</v>
+        <v>60070.983461000003</v>
       </c>
       <c r="AZ20" s="1">
         <v>16.686384</v>
       </c>
       <c r="BA20" s="1">
-        <v>1256.390000</v>
+        <v>1256.3900000000001</v>
       </c>
       <c r="BB20" s="1">
-        <v>-139.402000</v>
+        <v>-139.40199999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>60082.008076</v>
+        <v>60082.008075999998</v>
       </c>
       <c r="BE20" s="1">
-        <v>16.689447</v>
+        <v>16.689447000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1297.400000</v>
+        <v>1297.4000000000001</v>
       </c>
       <c r="BG20" s="1">
-        <v>-221.705000</v>
+        <v>-221.70500000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>60093.418539</v>
+        <v>60093.418538999998</v>
       </c>
       <c r="BJ20" s="1">
-        <v>16.692616</v>
+        <v>16.692616000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1368.340000</v>
+        <v>1368.34</v>
       </c>
       <c r="BL20" s="1">
-        <v>-357.939000</v>
+        <v>-357.93900000000002</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>60104.663305</v>
+        <v>60104.663305000002</v>
       </c>
       <c r="BO20" s="1">
-        <v>16.695740</v>
+        <v>16.695740000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1484.330000</v>
+        <v>1484.33</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-578.976000</v>
+        <v>-578.976</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>60115.248426</v>
+        <v>60115.248425999998</v>
       </c>
       <c r="BT20" s="1">
-        <v>16.698680</v>
+        <v>16.69868</v>
       </c>
       <c r="BU20" s="1">
-        <v>1617.590000</v>
+        <v>1617.59</v>
       </c>
       <c r="BV20" s="1">
-        <v>-827.438000</v>
+        <v>-827.43799999999999</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>60126.155452</v>
+        <v>60126.155451999999</v>
       </c>
       <c r="BY20" s="1">
-        <v>16.701710</v>
+        <v>16.701709999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1771.940000</v>
+        <v>1771.94</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1096.900000</v>
+        <v>-1096.9000000000001</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>60138.997373</v>
+        <v>60138.997372999998</v>
       </c>
       <c r="CD20" s="1">
-        <v>16.705277</v>
+        <v>16.705276999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>2193.940000</v>
+        <v>2193.94</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1746.940000</v>
+        <v>-1746.94</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>59965.570706</v>
+        <v>59965.570705999999</v>
       </c>
       <c r="B21" s="1">
-        <v>16.657103</v>
+        <v>16.657102999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>1148.770000</v>
+        <v>1148.77</v>
       </c>
       <c r="D21" s="1">
-        <v>-255.052000</v>
+        <v>-255.05199999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>59975.377638</v>
+        <v>59975.377637999998</v>
       </c>
       <c r="G21" s="1">
         <v>16.659827</v>
       </c>
       <c r="H21" s="1">
-        <v>1169.240000</v>
+        <v>1169.24</v>
       </c>
       <c r="I21" s="1">
-        <v>-214.002000</v>
+        <v>-214.00200000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>59985.857606</v>
+        <v>59985.857605999998</v>
       </c>
       <c r="L21" s="1">
-        <v>16.662738</v>
+        <v>16.662738000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>1195.520000</v>
+        <v>1195.52</v>
       </c>
       <c r="N21" s="1">
-        <v>-148.761000</v>
+        <v>-148.761</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>59996.421865</v>
+        <v>59996.421864999997</v>
       </c>
       <c r="Q21" s="1">
-        <v>16.665673</v>
+        <v>16.665673000000002</v>
       </c>
       <c r="R21" s="1">
-        <v>1202.980000</v>
+        <v>1202.98</v>
       </c>
       <c r="S21" s="1">
-        <v>-127.152000</v>
+        <v>-127.152</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>60006.529371</v>
+        <v>60006.529370999997</v>
       </c>
       <c r="V21" s="1">
-        <v>16.668480</v>
+        <v>16.668479999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>1210.150000</v>
+        <v>1210.1500000000001</v>
       </c>
       <c r="X21" s="1">
-        <v>-106.838000</v>
+        <v>-106.83799999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>60017.080732</v>
+        <v>60017.080732000002</v>
       </c>
       <c r="AA21" s="1">
-        <v>16.671411</v>
+        <v>16.671410999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>1217.590000</v>
+        <v>1217.5899999999999</v>
       </c>
       <c r="AC21" s="1">
-        <v>-90.364700</v>
+        <v>-90.364699999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>60027.607364</v>
+        <v>60027.607364000003</v>
       </c>
       <c r="AF21" s="1">
-        <v>16.674335</v>
+        <v>16.674334999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>1222.270000</v>
+        <v>1222.27</v>
       </c>
       <c r="AH21" s="1">
-        <v>-86.156500</v>
+        <v>-86.156499999999994</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>60038.114288</v>
+        <v>60038.114287999997</v>
       </c>
       <c r="AK21" s="1">
-        <v>16.677254</v>
+        <v>16.677254000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>1229.450000</v>
+        <v>1229.45</v>
       </c>
       <c r="AM21" s="1">
-        <v>-89.898100</v>
+        <v>-89.898099999999999</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>60048.905539</v>
+        <v>60048.905538999999</v>
       </c>
       <c r="AP21" s="1">
-        <v>16.680252</v>
+        <v>16.680251999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1237.550000</v>
+        <v>1237.55</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.139000</v>
+        <v>-102.139</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>60059.913749</v>
+        <v>60059.913748999999</v>
       </c>
       <c r="AU21" s="1">
-        <v>16.683309</v>
+        <v>16.683309000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>1247.720000</v>
+        <v>1247.72</v>
       </c>
       <c r="AW21" s="1">
-        <v>-121.743000</v>
+        <v>-121.74299999999999</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>60071.372848</v>
+        <v>60071.372847999999</v>
       </c>
       <c r="AZ21" s="1">
-        <v>16.686492</v>
+        <v>16.686492000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1256.400000</v>
+        <v>1256.4000000000001</v>
       </c>
       <c r="BB21" s="1">
-        <v>-139.409000</v>
+        <v>-139.40899999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>60082.367142</v>
+        <v>60082.367142000003</v>
       </c>
       <c r="BE21" s="1">
         <v>16.689546</v>
       </c>
       <c r="BF21" s="1">
-        <v>1297.380000</v>
+        <v>1297.3800000000001</v>
       </c>
       <c r="BG21" s="1">
-        <v>-221.686000</v>
+        <v>-221.68600000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>60094.165479</v>
+        <v>60094.165479000003</v>
       </c>
       <c r="BJ21" s="1">
-        <v>16.692824</v>
+        <v>16.692824000000002</v>
       </c>
       <c r="BK21" s="1">
-        <v>1368.290000</v>
+        <v>1368.29</v>
       </c>
       <c r="BL21" s="1">
-        <v>-357.897000</v>
+        <v>-357.89699999999999</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>60105.082456</v>
+        <v>60105.082455999996</v>
       </c>
       <c r="BO21" s="1">
-        <v>16.695856</v>
+        <v>16.695855999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1484.340000</v>
+        <v>1484.34</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-578.919000</v>
+        <v>-578.91899999999998</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>60115.675980</v>
+        <v>60115.67598</v>
       </c>
       <c r="BT21" s="1">
-        <v>16.698799</v>
+        <v>16.698799000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1617.580000</v>
+        <v>1617.58</v>
       </c>
       <c r="BV21" s="1">
-        <v>-827.577000</v>
+        <v>-827.577</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>60126.578572</v>
+        <v>60126.578571999999</v>
       </c>
       <c r="BY21" s="1">
-        <v>16.701827</v>
+        <v>16.701827000000002</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1772.010000</v>
+        <v>1772.01</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1096.800000</v>
+        <v>-1096.8</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>60139.837118</v>
+        <v>60139.837118000003</v>
       </c>
       <c r="CD21" s="1">
-        <v>16.705510</v>
+        <v>16.70551</v>
       </c>
       <c r="CE21" s="1">
-        <v>2193.880000</v>
+        <v>2193.88</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1744.940000</v>
+        <v>-1744.94</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>59965.934768</v>
+        <v>59965.934767999999</v>
       </c>
       <c r="B22" s="1">
         <v>16.657204</v>
       </c>
       <c r="C22" s="1">
-        <v>1148.910000</v>
+        <v>1148.9100000000001</v>
       </c>
       <c r="D22" s="1">
-        <v>-254.972000</v>
+        <v>-254.97200000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>59975.725300</v>
+        <v>59975.725299999998</v>
       </c>
       <c r="G22" s="1">
         <v>16.659924</v>
       </c>
       <c r="H22" s="1">
-        <v>1168.400000</v>
+        <v>1168.4000000000001</v>
       </c>
       <c r="I22" s="1">
-        <v>-213.764000</v>
+        <v>-213.76400000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>59986.203318</v>
@@ -5651,497 +6067,497 @@
         <v>16.662834</v>
       </c>
       <c r="M22" s="1">
-        <v>1195.730000</v>
+        <v>1195.73</v>
       </c>
       <c r="N22" s="1">
-        <v>-148.611000</v>
+        <v>-148.61099999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>59996.769095</v>
+        <v>59996.769095000003</v>
       </c>
       <c r="Q22" s="1">
-        <v>16.665769</v>
+        <v>16.665769000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>1203.060000</v>
+        <v>1203.06</v>
       </c>
       <c r="S22" s="1">
-        <v>-127.066000</v>
+        <v>-127.066</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>60006.954940</v>
+        <v>60006.954940000003</v>
       </c>
       <c r="V22" s="1">
         <v>16.668599</v>
       </c>
       <c r="W22" s="1">
-        <v>1210.170000</v>
+        <v>1210.17</v>
       </c>
       <c r="X22" s="1">
-        <v>-106.823000</v>
+        <v>-106.82299999999999</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>60017.507323</v>
+        <v>60017.507322999998</v>
       </c>
       <c r="AA22" s="1">
-        <v>16.671530</v>
+        <v>16.671530000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>1217.260000</v>
+        <v>1217.26</v>
       </c>
       <c r="AC22" s="1">
-        <v>-90.146000</v>
+        <v>-90.146000000000001</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>60027.905454</v>
       </c>
       <c r="AF22" s="1">
-        <v>16.674418</v>
+        <v>16.674417999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>1222.270000</v>
+        <v>1222.27</v>
       </c>
       <c r="AH22" s="1">
-        <v>-86.132400</v>
+        <v>-86.132400000000004</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>60038.460288</v>
+        <v>60038.460288000002</v>
       </c>
       <c r="AK22" s="1">
-        <v>16.677350</v>
+        <v>16.677350000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>1229.440000</v>
+        <v>1229.44</v>
       </c>
       <c r="AM22" s="1">
-        <v>-89.877800</v>
+        <v>-89.877799999999993</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>60049.270594</v>
+        <v>60049.270594000001</v>
       </c>
       <c r="AP22" s="1">
         <v>16.680353</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1237.540000</v>
+        <v>1237.54</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.147000</v>
+        <v>-102.14700000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>60060.279006</v>
+        <v>60060.279005999997</v>
       </c>
       <c r="AU22" s="1">
         <v>16.683411</v>
       </c>
       <c r="AV22" s="1">
-        <v>1247.710000</v>
+        <v>1247.71</v>
       </c>
       <c r="AW22" s="1">
-        <v>-121.758000</v>
+        <v>-121.758</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>60072.087557</v>
+        <v>60072.087556999999</v>
       </c>
       <c r="AZ22" s="1">
         <v>16.686691</v>
       </c>
       <c r="BA22" s="1">
-        <v>1256.360000</v>
+        <v>1256.3599999999999</v>
       </c>
       <c r="BB22" s="1">
-        <v>-139.413000</v>
+        <v>-139.41300000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>60083.090310</v>
+        <v>60083.09031</v>
       </c>
       <c r="BE22" s="1">
-        <v>16.689747</v>
+        <v>16.689747000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1297.400000</v>
+        <v>1297.4000000000001</v>
       </c>
       <c r="BG22" s="1">
-        <v>-221.708000</v>
+        <v>-221.708</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>60094.543959</v>
+        <v>60094.543959000002</v>
       </c>
       <c r="BJ22" s="1">
-        <v>16.692929</v>
+        <v>16.692928999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1368.260000</v>
+        <v>1368.26</v>
       </c>
       <c r="BL22" s="1">
-        <v>-357.928000</v>
+        <v>-357.928</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>60105.477273</v>
+        <v>60105.477272999997</v>
       </c>
       <c r="BO22" s="1">
-        <v>16.695966</v>
+        <v>16.695965999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1484.280000</v>
+        <v>1484.28</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-578.975000</v>
+        <v>-578.97500000000002</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
         <v>60116.090634</v>
       </c>
       <c r="BT22" s="1">
-        <v>16.698914</v>
+        <v>16.698913999999998</v>
       </c>
       <c r="BU22" s="1">
-        <v>1617.480000</v>
+        <v>1617.48</v>
       </c>
       <c r="BV22" s="1">
-        <v>-827.772000</v>
+        <v>-827.77200000000005</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>60127.310667</v>
+        <v>60127.310666999998</v>
       </c>
       <c r="BY22" s="1">
-        <v>16.702031</v>
+        <v>16.702031000000002</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1772.080000</v>
+        <v>1772.08</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1096.950000</v>
+        <v>-1096.95</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>60140.080667</v>
+        <v>60140.080667000002</v>
       </c>
       <c r="CD22" s="1">
-        <v>16.705578</v>
+        <v>16.705577999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>2192.060000</v>
+        <v>2192.06</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1744.850000</v>
+        <v>-1744.85</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>59966.280977</v>
+        <v>59966.280977000002</v>
       </c>
       <c r="B23" s="1">
-        <v>16.657300</v>
+        <v>16.657299999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>1149.010000</v>
+        <v>1149.01</v>
       </c>
       <c r="D23" s="1">
-        <v>-254.936000</v>
+        <v>-254.93600000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>59976.069028</v>
+        <v>59976.069027999998</v>
       </c>
       <c r="G23" s="1">
-        <v>16.660019</v>
+        <v>16.660018999999998</v>
       </c>
       <c r="H23" s="1">
-        <v>1169.560000</v>
+        <v>1169.56</v>
       </c>
       <c r="I23" s="1">
-        <v>-213.760000</v>
+        <v>-213.76</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>59986.547013</v>
+        <v>59986.547013000003</v>
       </c>
       <c r="L23" s="1">
-        <v>16.662930</v>
+        <v>16.662929999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>1195.400000</v>
+        <v>1195.4000000000001</v>
       </c>
       <c r="N23" s="1">
-        <v>-148.555000</v>
+        <v>-148.55500000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>59997.171851</v>
+        <v>59997.171850999999</v>
       </c>
       <c r="Q23" s="1">
-        <v>16.665881</v>
+        <v>16.665880999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>1202.980000</v>
+        <v>1202.98</v>
       </c>
       <c r="S23" s="1">
-        <v>-127.055000</v>
+        <v>-127.05500000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>60007.223738</v>
+        <v>60007.223738000001</v>
       </c>
       <c r="V23" s="1">
-        <v>16.668673</v>
+        <v>16.668672999999998</v>
       </c>
       <c r="W23" s="1">
-        <v>1210.140000</v>
+        <v>1210.1400000000001</v>
       </c>
       <c r="X23" s="1">
-        <v>-106.957000</v>
+        <v>-106.95699999999999</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>60017.788028</v>
+        <v>60017.788028000003</v>
       </c>
       <c r="AA23" s="1">
-        <v>16.671608</v>
+        <v>16.671607999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>1217.610000</v>
+        <v>1217.6099999999999</v>
       </c>
       <c r="AC23" s="1">
-        <v>-90.324800</v>
+        <v>-90.324799999999996</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>60028.250142</v>
+        <v>60028.250141999997</v>
       </c>
       <c r="AF23" s="1">
-        <v>16.674514</v>
+        <v>16.674513999999999</v>
       </c>
       <c r="AG23" s="1">
-        <v>1222.290000</v>
+        <v>1222.29</v>
       </c>
       <c r="AH23" s="1">
-        <v>-86.142100</v>
+        <v>-86.142099999999999</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>60038.808517</v>
+        <v>60038.808516999998</v>
       </c>
       <c r="AK23" s="1">
-        <v>16.677447</v>
+        <v>16.677447000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>1229.440000</v>
+        <v>1229.44</v>
       </c>
       <c r="AM23" s="1">
-        <v>-89.869100</v>
+        <v>-89.869100000000003</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>60049.625765</v>
+        <v>60049.625764999997</v>
       </c>
       <c r="AP23" s="1">
-        <v>16.680452</v>
+        <v>16.680451999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1237.570000</v>
+        <v>1237.57</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.106000</v>
+        <v>-102.10599999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>60061.006434</v>
+        <v>60061.006434000003</v>
       </c>
       <c r="AU23" s="1">
-        <v>16.683613</v>
+        <v>16.683613000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>1247.750000</v>
+        <v>1247.75</v>
       </c>
       <c r="AW23" s="1">
-        <v>-121.713000</v>
+        <v>-121.71299999999999</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>60072.449636</v>
+        <v>60072.449635999998</v>
       </c>
       <c r="AZ23" s="1">
-        <v>16.686792</v>
+        <v>16.686792000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1256.390000</v>
+        <v>1256.3900000000001</v>
       </c>
       <c r="BB23" s="1">
-        <v>-139.443000</v>
+        <v>-139.44300000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>60083.475238</v>
+        <v>60083.475237999999</v>
       </c>
       <c r="BE23" s="1">
         <v>16.689854</v>
       </c>
       <c r="BF23" s="1">
-        <v>1297.390000</v>
+        <v>1297.3900000000001</v>
       </c>
       <c r="BG23" s="1">
-        <v>-221.726000</v>
+        <v>-221.726</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>60094.919430</v>
+        <v>60094.919430000002</v>
       </c>
       <c r="BJ23" s="1">
         <v>16.693033</v>
       </c>
       <c r="BK23" s="1">
-        <v>1368.340000</v>
+        <v>1368.34</v>
       </c>
       <c r="BL23" s="1">
-        <v>-357.987000</v>
+        <v>-357.98700000000002</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>60106.219786</v>
+        <v>60106.219786000001</v>
       </c>
       <c r="BO23" s="1">
-        <v>16.696172</v>
+        <v>16.696172000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1484.290000</v>
+        <v>1484.29</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-578.987000</v>
+        <v>-578.98699999999997</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>60116.830169</v>
+        <v>60116.830169000001</v>
       </c>
       <c r="BT23" s="1">
         <v>16.699119</v>
       </c>
       <c r="BU23" s="1">
-        <v>1617.570000</v>
+        <v>1617.57</v>
       </c>
       <c r="BV23" s="1">
-        <v>-827.819000</v>
+        <v>-827.81899999999996</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>60127.481306</v>
+        <v>60127.481306000001</v>
       </c>
       <c r="BY23" s="1">
         <v>16.702078</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1772.050000</v>
+        <v>1772.05</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1096.960000</v>
+        <v>-1096.96</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>60140.615357</v>
+        <v>60140.615357000002</v>
       </c>
       <c r="CD23" s="1">
-        <v>16.705726</v>
+        <v>16.705725999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>2193.500000</v>
+        <v>2193.5</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1747.020000</v>
+        <v>-1747.02</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>59966.623247</v>
+        <v>59966.623247000003</v>
       </c>
       <c r="B24" s="1">
-        <v>16.657395</v>
+        <v>16.657395000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>1148.860000</v>
+        <v>1148.8599999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>-254.738000</v>
+        <v>-254.738</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>59976.498066</v>
@@ -6150,754 +6566,755 @@
         <v>16.660138</v>
       </c>
       <c r="H24" s="1">
-        <v>1168.630000</v>
+        <v>1168.6300000000001</v>
       </c>
       <c r="I24" s="1">
-        <v>-213.951000</v>
+        <v>-213.95099999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>59986.973572</v>
+        <v>59986.973572000003</v>
       </c>
       <c r="L24" s="1">
         <v>16.663048</v>
       </c>
       <c r="M24" s="1">
-        <v>1195.580000</v>
+        <v>1195.58</v>
       </c>
       <c r="N24" s="1">
-        <v>-148.677000</v>
+        <v>-148.67699999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>59997.469946</v>
+        <v>59997.469945999997</v>
       </c>
       <c r="Q24" s="1">
-        <v>16.665964</v>
+        <v>16.665963999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>1203.000000</v>
+        <v>1203</v>
       </c>
       <c r="S24" s="1">
-        <v>-127.063000</v>
+        <v>-127.063</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>60007.567153</v>
+        <v>60007.567153000004</v>
       </c>
       <c r="V24" s="1">
-        <v>16.668769</v>
+        <v>16.668769000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>1210.000000</v>
+        <v>1210</v>
       </c>
       <c r="X24" s="1">
-        <v>-106.783000</v>
+        <v>-106.783</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>60018.138700</v>
+        <v>60018.138700000003</v>
       </c>
       <c r="AA24" s="1">
-        <v>16.671705</v>
+        <v>16.671704999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>1217.580000</v>
+        <v>1217.58</v>
       </c>
       <c r="AC24" s="1">
-        <v>-90.247500</v>
+        <v>-90.247500000000002</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>60028.592909</v>
+        <v>60028.592908999999</v>
       </c>
       <c r="AF24" s="1">
         <v>16.674609</v>
       </c>
       <c r="AG24" s="1">
-        <v>1222.260000</v>
+        <v>1222.26</v>
       </c>
       <c r="AH24" s="1">
-        <v>-86.139100</v>
+        <v>-86.139099999999999</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>60039.504894</v>
+        <v>60039.504893999998</v>
       </c>
       <c r="AK24" s="1">
-        <v>16.677640</v>
+        <v>16.67764</v>
       </c>
       <c r="AL24" s="1">
-        <v>1229.420000</v>
+        <v>1229.42</v>
       </c>
       <c r="AM24" s="1">
-        <v>-89.895500</v>
+        <v>-89.895499999999998</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>60050.353361</v>
+        <v>60050.353361000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>16.680654</v>
+        <v>16.680654000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1237.550000</v>
+        <v>1237.55</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.124000</v>
+        <v>-102.124</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>60061.398274</v>
+        <v>60061.398273999999</v>
       </c>
       <c r="AU24" s="1">
-        <v>16.683722</v>
+        <v>16.683721999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>1247.750000</v>
+        <v>1247.75</v>
       </c>
       <c r="AW24" s="1">
-        <v>-121.734000</v>
+        <v>-121.73399999999999</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>60072.804803</v>
+        <v>60072.804802999999</v>
       </c>
       <c r="AZ24" s="1">
-        <v>16.686890</v>
+        <v>16.686889999999998</v>
       </c>
       <c r="BA24" s="1">
-        <v>1256.350000</v>
+        <v>1256.3499999999999</v>
       </c>
       <c r="BB24" s="1">
-        <v>-139.417000</v>
+        <v>-139.417</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>60083.858614</v>
+        <v>60083.858613999997</v>
       </c>
       <c r="BE24" s="1">
         <v>16.689961</v>
       </c>
       <c r="BF24" s="1">
-        <v>1297.400000</v>
+        <v>1297.4000000000001</v>
       </c>
       <c r="BG24" s="1">
-        <v>-221.677000</v>
+        <v>-221.67699999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>60095.601398</v>
+        <v>60095.601397999999</v>
       </c>
       <c r="BJ24" s="1">
         <v>16.693223</v>
       </c>
       <c r="BK24" s="1">
-        <v>1368.290000</v>
+        <v>1368.29</v>
       </c>
       <c r="BL24" s="1">
-        <v>-357.945000</v>
+        <v>-357.94499999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>60106.331848</v>
+        <v>60106.331848000002</v>
       </c>
       <c r="BO24" s="1">
-        <v>16.696203</v>
+        <v>16.696203000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1484.340000</v>
+        <v>1484.34</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-578.954000</v>
+        <v>-578.95399999999995</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>60116.944746</v>
+        <v>60116.944746000001</v>
       </c>
       <c r="BT24" s="1">
-        <v>16.699151</v>
+        <v>16.699151000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>1617.610000</v>
+        <v>1617.61</v>
       </c>
       <c r="BV24" s="1">
-        <v>-828.013000</v>
+        <v>-828.01300000000003</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>60127.906330</v>
+        <v>60127.906329999998</v>
       </c>
       <c r="BY24" s="1">
-        <v>16.702196</v>
+        <v>16.702196000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1771.970000</v>
+        <v>1771.97</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1096.960000</v>
+        <v>-1096.96</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>60141.154009</v>
+        <v>60141.154008999998</v>
       </c>
       <c r="CD24" s="1">
         <v>16.705876</v>
       </c>
       <c r="CE24" s="1">
-        <v>2193.310000</v>
+        <v>2193.31</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1744.420000</v>
+        <v>-1744.42</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>59967.046801</v>
+        <v>59967.046800999997</v>
       </c>
       <c r="B25" s="1">
-        <v>16.657513</v>
+        <v>16.657513000000002</v>
       </c>
       <c r="C25" s="1">
-        <v>1148.910000</v>
+        <v>1148.9100000000001</v>
       </c>
       <c r="D25" s="1">
-        <v>-254.826000</v>
+        <v>-254.82599999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>59976.756979</v>
+        <v>59976.756978999998</v>
       </c>
       <c r="G25" s="1">
-        <v>16.660210</v>
+        <v>16.660209999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>1169.180000</v>
+        <v>1169.18</v>
       </c>
       <c r="I25" s="1">
-        <v>-213.061000</v>
+        <v>-213.06100000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>59987.293493</v>
+        <v>59987.293492999997</v>
       </c>
       <c r="L25" s="1">
-        <v>16.663137</v>
+        <v>16.663136999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>1195.460000</v>
+        <v>1195.46</v>
       </c>
       <c r="N25" s="1">
-        <v>-148.496000</v>
+        <v>-148.49600000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>59997.819135</v>
+        <v>59997.819134999998</v>
       </c>
       <c r="Q25" s="1">
-        <v>16.666061</v>
+        <v>16.666060999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>1203.070000</v>
+        <v>1203.07</v>
       </c>
       <c r="S25" s="1">
-        <v>-127.024000</v>
+        <v>-127.024</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
         <v>60007.911192</v>
       </c>
       <c r="V25" s="1">
-        <v>16.668864</v>
+        <v>16.668863999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>1210.250000</v>
+        <v>1210.25</v>
       </c>
       <c r="X25" s="1">
-        <v>-107.045000</v>
+        <v>-107.045</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>60018.487387</v>
+        <v>60018.487387000001</v>
       </c>
       <c r="AA25" s="1">
         <v>16.671802</v>
       </c>
       <c r="AB25" s="1">
-        <v>1217.530000</v>
+        <v>1217.53</v>
       </c>
       <c r="AC25" s="1">
-        <v>-90.322900</v>
+        <v>-90.322900000000004</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>60029.280830</v>
+        <v>60029.280830000003</v>
       </c>
       <c r="AF25" s="1">
-        <v>16.674800</v>
+        <v>16.674800000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>1222.230000</v>
+        <v>1222.23</v>
       </c>
       <c r="AH25" s="1">
-        <v>-86.191700</v>
+        <v>-86.191699999999997</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>60039.856030</v>
+        <v>60039.856030000003</v>
       </c>
       <c r="AK25" s="1">
-        <v>16.677738</v>
+        <v>16.677738000000002</v>
       </c>
       <c r="AL25" s="1">
-        <v>1229.440000</v>
+        <v>1229.44</v>
       </c>
       <c r="AM25" s="1">
-        <v>-89.893100</v>
+        <v>-89.893100000000004</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>60050.731841</v>
+        <v>60050.731841000001</v>
       </c>
       <c r="AP25" s="1">
-        <v>16.680759</v>
+        <v>16.680758999999998</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1237.570000</v>
+        <v>1237.57</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.107000</v>
+        <v>-102.107</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>60061.763330</v>
+        <v>60061.763330000002</v>
       </c>
       <c r="AU25" s="1">
         <v>16.683823</v>
       </c>
       <c r="AV25" s="1">
-        <v>1247.750000</v>
+        <v>1247.75</v>
       </c>
       <c r="AW25" s="1">
-        <v>-121.764000</v>
+        <v>-121.764</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>60073.476850</v>
+        <v>60073.476849999999</v>
       </c>
       <c r="AZ25" s="1">
-        <v>16.687077</v>
+        <v>16.687076999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1256.390000</v>
+        <v>1256.3900000000001</v>
       </c>
       <c r="BB25" s="1">
-        <v>-139.416000</v>
+        <v>-139.416</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>60084.537637</v>
+        <v>60084.537637000001</v>
       </c>
       <c r="BE25" s="1">
-        <v>16.690149</v>
+        <v>16.690149000000002</v>
       </c>
       <c r="BF25" s="1">
-        <v>1297.400000</v>
+        <v>1297.4000000000001</v>
       </c>
       <c r="BG25" s="1">
-        <v>-221.699000</v>
+        <v>-221.69900000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
         <v>60096.044359</v>
       </c>
       <c r="BJ25" s="1">
-        <v>16.693346</v>
+        <v>16.693345999999998</v>
       </c>
       <c r="BK25" s="1">
-        <v>1368.310000</v>
+        <v>1368.31</v>
       </c>
       <c r="BL25" s="1">
-        <v>-357.943000</v>
+        <v>-357.94299999999998</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>60106.720712</v>
+        <v>60106.720712000002</v>
       </c>
       <c r="BO25" s="1">
-        <v>16.696311</v>
+        <v>16.696311000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1484.330000</v>
+        <v>1484.33</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-578.968000</v>
+        <v>-578.96799999999996</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>60117.382713</v>
+        <v>60117.382712999999</v>
       </c>
       <c r="BT25" s="1">
-        <v>16.699273</v>
+        <v>16.699273000000002</v>
       </c>
       <c r="BU25" s="1">
-        <v>1617.730000</v>
+        <v>1617.73</v>
       </c>
       <c r="BV25" s="1">
-        <v>-828.071000</v>
+        <v>-828.07100000000003</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>60128.352731</v>
+        <v>60128.352730999999</v>
       </c>
       <c r="BY25" s="1">
-        <v>16.702320</v>
+        <v>16.70232</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1772.020000</v>
+        <v>1772.02</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1096.880000</v>
+        <v>-1096.8800000000001</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>60141.693159</v>
+        <v>60141.693159000002</v>
       </c>
       <c r="CD25" s="1">
-        <v>16.706026</v>
+        <v>16.706026000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>2192.290000</v>
+        <v>2192.29</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1746.450000</v>
+        <v>-1746.45</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>59967.319136</v>
+        <v>59967.319135999998</v>
       </c>
       <c r="B26" s="1">
-        <v>16.657589</v>
+        <v>16.657589000000002</v>
       </c>
       <c r="C26" s="1">
-        <v>1148.710000</v>
+        <v>1148.71</v>
       </c>
       <c r="D26" s="1">
-        <v>-255.018000</v>
+        <v>-255.018</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>59977.102203</v>
+        <v>59977.102203000002</v>
       </c>
       <c r="G26" s="1">
-        <v>16.660306</v>
+        <v>16.660305999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>1169.690000</v>
+        <v>1169.69</v>
       </c>
       <c r="I26" s="1">
-        <v>-213.961000</v>
+        <v>-213.96100000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>59987.615893</v>
+        <v>59987.615893000002</v>
       </c>
       <c r="L26" s="1">
-        <v>16.663227</v>
+        <v>16.663226999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>1195.440000</v>
+        <v>1195.44</v>
       </c>
       <c r="N26" s="1">
-        <v>-148.738000</v>
+        <v>-148.738</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>59998.165339</v>
+        <v>59998.165338999999</v>
       </c>
       <c r="Q26" s="1">
-        <v>16.666157</v>
+        <v>16.666156999999998</v>
       </c>
       <c r="R26" s="1">
-        <v>1203.060000</v>
+        <v>1203.06</v>
       </c>
       <c r="S26" s="1">
-        <v>-127.075000</v>
+        <v>-127.075</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>60008.597161</v>
+        <v>60008.597160999998</v>
       </c>
       <c r="V26" s="1">
         <v>16.669055</v>
       </c>
       <c r="W26" s="1">
-        <v>1210.130000</v>
+        <v>1210.1300000000001</v>
       </c>
       <c r="X26" s="1">
-        <v>-106.824000</v>
+        <v>-106.824</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>60019.180826</v>
+        <v>60019.180826000003</v>
       </c>
       <c r="AA26" s="1">
-        <v>16.671995</v>
+        <v>16.671994999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>1217.520000</v>
+        <v>1217.52</v>
       </c>
       <c r="AC26" s="1">
-        <v>-90.403700</v>
+        <v>-90.403700000000001</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>60029.623068</v>
+        <v>60029.623068000001</v>
       </c>
       <c r="AF26" s="1">
-        <v>16.674895</v>
+        <v>16.674894999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>1222.270000</v>
+        <v>1222.27</v>
       </c>
       <c r="AH26" s="1">
-        <v>-86.154100</v>
+        <v>-86.1541</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>60040.204720</v>
+        <v>60040.204720000002</v>
       </c>
       <c r="AK26" s="1">
-        <v>16.677835</v>
+        <v>16.677835000000002</v>
       </c>
       <c r="AL26" s="1">
-        <v>1229.460000</v>
+        <v>1229.46</v>
       </c>
       <c r="AM26" s="1">
-        <v>-89.899000</v>
+        <v>-89.899000000000001</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>60051.089952</v>
+        <v>60051.089952000002</v>
       </c>
       <c r="AP26" s="1">
-        <v>16.680858</v>
+        <v>16.680858000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1237.540000</v>
+        <v>1237.54</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.144000</v>
+        <v>-102.14400000000001</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>60062.441392</v>
+        <v>60062.441392000001</v>
       </c>
       <c r="AU26" s="1">
-        <v>16.684011</v>
+        <v>16.684011000000002</v>
       </c>
       <c r="AV26" s="1">
-        <v>1247.740000</v>
+        <v>1247.74</v>
       </c>
       <c r="AW26" s="1">
-        <v>-121.735000</v>
+        <v>-121.735</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>60073.916801</v>
+        <v>60073.916800999999</v>
       </c>
       <c r="AZ26" s="1">
         <v>16.687199</v>
       </c>
       <c r="BA26" s="1">
-        <v>1256.390000</v>
+        <v>1256.3900000000001</v>
       </c>
       <c r="BB26" s="1">
-        <v>-139.425000</v>
+        <v>-139.42500000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>60084.942877</v>
+        <v>60084.942877000001</v>
       </c>
       <c r="BE26" s="1">
-        <v>16.690262</v>
+        <v>16.690262000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1297.390000</v>
+        <v>1297.3900000000001</v>
       </c>
       <c r="BG26" s="1">
-        <v>-221.721000</v>
+        <v>-221.721</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>60096.420820</v>
+        <v>60096.420819999999</v>
       </c>
       <c r="BJ26" s="1">
-        <v>16.693450</v>
+        <v>16.693449999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1368.300000</v>
+        <v>1368.3</v>
       </c>
       <c r="BL26" s="1">
-        <v>-357.948000</v>
+        <v>-357.94799999999998</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>60107.140822</v>
+        <v>60107.140822000001</v>
       </c>
       <c r="BO26" s="1">
-        <v>16.696428</v>
+        <v>16.696428000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1484.310000</v>
+        <v>1484.31</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-578.973000</v>
+        <v>-578.97299999999996</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>60117.794407</v>
+        <v>60117.794407000001</v>
       </c>
       <c r="BT26" s="1">
-        <v>16.699387</v>
+        <v>16.699387000000002</v>
       </c>
       <c r="BU26" s="1">
-        <v>1617.910000</v>
+        <v>1617.91</v>
       </c>
       <c r="BV26" s="1">
-        <v>-828.128000</v>
+        <v>-828.12800000000004</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>60128.784746</v>
+        <v>60128.784745999998</v>
       </c>
       <c r="BY26" s="1">
-        <v>16.702440</v>
+        <v>16.702439999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1771.970000</v>
+        <v>1771.97</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1097.020000</v>
+        <v>-1097.02</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>60142.234759</v>
+        <v>60142.234758999999</v>
       </c>
       <c r="CD26" s="1">
-        <v>16.706176</v>
+        <v>16.706175999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>2194.590000</v>
+        <v>2194.59</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1745.930000</v>
+        <v>-1745.93</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>